--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,62 +391,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>322</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>361</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,84 +474,84 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -560,53 +560,53 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,24 +614,24 @@
         <v>57</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -640,38 +640,38 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>225</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -680,78 +680,78 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -760,78 +760,78 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -840,84 +840,84 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>248</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>276</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>231</v>
@@ -926,12 +926,12 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -940,18 +940,18 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -960,78 +960,78 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1040,38 +1040,38 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1097,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1120,18 +1120,18 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1140,78 +1140,78 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>355</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>385</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1260,53 +1260,53 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,44 +1334,44 @@
         <v>58</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1397,36 +1397,36 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>329</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1437,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1460,58 +1460,58 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1520,18 +1520,18 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1540,47 +1540,47 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1600,53 +1600,53 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>312</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1671,27 +1671,27 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>216</v>
+        <v>409</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>276</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>300</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,24 +1734,24 @@
         <v>58</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>266</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,39 +1774,39 @@
         <v>58</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>282</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>275</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1817,81 +1817,81 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>278</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1900,33 +1900,33 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>386</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>363</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,24 +1934,24 @@
         <v>59</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1977,76 +1977,76 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2057,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2080,18 +2080,18 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2100,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>426</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,124 +2114,124 @@
         <v>57</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>288</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>231</v>
+        <v>449</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>292</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>330</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2240,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2260,18 +2260,18 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>337</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2280,18 +2280,18 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>233</v>
+        <v>427</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>317</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2300,38 +2300,38 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>242</v>
+        <v>341</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>294</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2340,58 +2340,58 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>310</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>327</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2400,38 +2400,38 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>278</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -2440,18 +2440,18 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2460,38 +2460,38 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>58</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>307</v>
+        <v>411</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>367</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,24 +2534,24 @@
         <v>58</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>332</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>347</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>357</v>
+        <v>454</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>418</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2600,1143 +2600,43 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>324</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>348</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>254</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>60</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>241</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>58</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>271</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>61</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>258</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>58</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>303</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>65</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>319</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>60</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>285</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>57</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>273</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>66</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>324</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>58</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>286</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>60</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>271</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>57</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>264</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>59</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>257</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>58</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>264</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>60</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>261</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>58</v>
-      </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>290</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>76</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>287</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>106</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>268</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>68</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>14</v>
-      </c>
-      <c r="D132">
-        <v>265</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>103</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>279</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>58</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>303</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>58</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>337</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>56</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>269</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>64</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>262</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>57</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>294</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>58</v>
-      </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>304</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>59</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>332</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>58</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>281</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>58</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>286</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>57</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>274</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>58</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>289</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>58</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>302</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>63</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>284</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>57</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>307</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>58</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>285</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>58</v>
-      </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>292</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>58</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>269</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>59</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>264</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>57</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>264</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>57</v>
-      </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>279</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>61</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>292</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>72</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>261</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>95</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156">
-        <v>270</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>65</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>272</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>62</v>
-      </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>269</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>58</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>270</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>57</v>
-      </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160">
-        <v>266</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>57</v>
-      </c>
-      <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>274</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>56</v>
-      </c>
-      <c r="B162">
-        <v>0</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>281</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>57</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>275</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>57</v>
-      </c>
-      <c r="B164">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164">
-        <v>275</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>57</v>
-      </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>300</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>62</v>
-      </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166">
-        <v>290</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>59</v>
-      </c>
-      <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167">
-        <v>299</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>60</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168">
-        <v>275</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>58</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-      <c r="C169">
         <v>0</v>
       </c>
     </row>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,27 +391,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>532</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -420,38 +420,38 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>167</v>
+        <v>390</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>226</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>241</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -460,73 +460,73 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>244</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>386</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>231</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,10 +534,10 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>179</v>
@@ -551,27 +551,27 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -580,18 +580,18 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -600,33 +600,33 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>255</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,59 +634,59 @@
         <v>58</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -717,76 +717,76 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,24 +794,24 @@
         <v>58</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -820,18 +820,18 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>244</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -840,18 +840,18 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -860,38 +860,38 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -900,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>348</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -920,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -940,18 +940,18 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -960,38 +960,38 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>273</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1000,107 +1000,107 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1111,22 +1111,22 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>203</v>
+        <v>331</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>281</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1140,18 +1140,18 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1180,18 +1180,18 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1203,75 +1203,75 @@
         <v>202</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1280,58 +1280,58 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>325</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1340,18 +1340,18 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1360,18 +1360,18 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1380,18 +1380,18 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1400,58 +1400,58 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1460,78 +1460,78 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>201</v>
+        <v>465</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>260</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>262</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1540,118 +1540,118 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>269</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>270</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1660,18 +1660,18 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1680,18 +1680,18 @@
         <v>1</v>
       </c>
       <c r="D66">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>467</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>387</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1717,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
         <v>289</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1740,18 +1740,18 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1780,38 +1780,38 @@
         <v>0</v>
       </c>
       <c r="D71">
+        <v>214</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>274</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
+        <v>215</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
         <v>276</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1820,18 +1820,18 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>334</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1840,98 +1840,98 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>312</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1940,38 +1940,38 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>336</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1980,33 +1980,33 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>314</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>374</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2017,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>356</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2040,58 +2040,58 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>278</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>332</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2100,58 +2100,58 @@
         <v>0</v>
       </c>
       <c r="D87">
+        <v>239</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>300</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>366</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2160,53 +2160,53 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>410</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>509</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2220,38 +2220,38 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>483</v>
+        <v>232</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>545</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
+        <v>247</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
         <v>309</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2260,38 +2260,38 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>367</v>
+        <v>232</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>425</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>427</v>
+        <v>241</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>487</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2300,118 +2300,118 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>398</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>363</v>
+        <v>246</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>425</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2420,38 +2420,38 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>325</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2460,18 +2460,18 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>343</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2480,18 +2480,18 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2500,53 +2500,53 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>411</v>
+        <v>275</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>471</v>
+        <v>337</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>432</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>313</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>454</v>
+        <v>277</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>512</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2600,44 +2600,924 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>314</v>
+        <v>239</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>373</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>351</v>
+        <v>232</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>410</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
+        <v>59</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>256</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>59</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>254</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>59</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>246</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>59</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>243</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>59</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>275</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>59</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>270</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
         <v>58</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>251</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>60</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>267</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>59</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>514</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>69</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>348</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>58</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>314</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>73</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>411</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>61</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>338</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>59</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>326</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>63</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>313</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>63</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>360</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>59</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>293</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>67</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>287</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>59</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>365</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>58</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>287</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>64</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>280</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>63</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>280</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>64</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>316</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>63</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>258</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>64</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>259</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>60</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>249</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>58</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>243</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>60</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>61</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>317</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>64</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>371</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>65</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>245</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>59</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>348</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>89</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>286</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>59</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>298</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>60</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>260</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>59</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>281</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>59</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>335</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>59</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>273</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>60</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>288</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>59</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>297</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>59</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>269</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>60</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>269</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>60</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>259</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>59</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>281</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>60</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,27 +391,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1814</v>
+        <v>530</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1973</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -420,253 +420,253 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>888</v>
+        <v>1174</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>952</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>579</v>
+        <v>1251</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>643</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>912</v>
+        <v>756</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>977</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>768</v>
+        <v>1895</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>832</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>800</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>864</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>168</v>
+        <v>593</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>227</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>62</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>815</v>
+        <v>204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>879</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>62</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>170</v>
+        <v>691</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>233</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>62</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>885</v>
+        <v>1242</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>948</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>190</v>
+        <v>1049</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>253</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -757,61 +757,61 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1486</v>
+        <v>206</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1551</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>201</v>
+        <v>1108</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>265</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>445</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>509</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -820,58 +820,58 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1608</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1672</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>176</v>
+        <v>599</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1446</v>
+        <v>190</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1509</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>172</v>
+        <v>1568</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>235</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,59 +914,59 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1719</v>
+        <v>209</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1783</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>196</v>
+        <v>1061</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>260</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>773</v>
+        <v>174</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>837</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -980,118 +980,118 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>185</v>
+        <v>1308</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>249</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>848</v>
+        <v>180</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>911</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>200</v>
+        <v>864</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>264</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1986</v>
+        <v>204</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2050</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>189</v>
+        <v>577</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>250</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>465</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1100,33 +1100,33 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>963</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1137,41 +1137,41 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>561</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1180,33 +1180,33 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1550</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1613</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1220,18 +1220,18 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>185</v>
+        <v>488</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>248</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1240,18 +1240,18 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>944</v>
+        <v>197</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1007</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>213</v>
+        <v>1580</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>277</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,24 +1274,24 @@
         <v>62</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>1170</v>
+        <v>187</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1300,53 +1300,53 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>194</v>
+        <v>700</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>258</v>
+        <v>763</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>713</v>
+        <v>188</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>776</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>207</v>
+        <v>1185</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>751</v>
+        <v>193</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>816</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,9 +1374,4349 @@
         <v>62</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>734</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>194</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>214</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>206</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>191</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>1369</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>885</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>277</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>216</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>242</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2005</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>207</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1241</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>334</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>244</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>2152</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>199</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1172</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>216</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>62</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>223</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1144</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>63</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>204</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>62</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1304</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>62</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>215</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>62</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>617</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>211</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>63</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>1442</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>63</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>253</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>63</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1052</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>63</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>209</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>63</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>206</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>232</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>62</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>223</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>32</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>207</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>63</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>227</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>32</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>222</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>62</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>220</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>32</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>209</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>63</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>577</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>32</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>216</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>63</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>234</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>31</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>227</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>63</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>264</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>218</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>62</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>211</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>62</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>217</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>259</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>62</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>224</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>63</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>214</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>62</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>330</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>62</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>238</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>63</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>237</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>63</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>218</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>63</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>286</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>62</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>340</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>32</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>295</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>63</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>695</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>42</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>241</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>62</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>246</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>32</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1620</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>62</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>222</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>63</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>235</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>31</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>667</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>63</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>243</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>62</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>588</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>32</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>226</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>63</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>709</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>38</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>261</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>62</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>243</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>32</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>234</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>62</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>285</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>32</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>356</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>62</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>256</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>32</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>597</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>63</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>403</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>62</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>644</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>32</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>238</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>489</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>32</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>294</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>62</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>233</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>32</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>405</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>63</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>253</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>32</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>247</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>63</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>245</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>32</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>238</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>62</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>296</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>62</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>244</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>32</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>242</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>62</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>245</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>62</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>248</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>32</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>267</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>59</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>379</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>32</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>245</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>63</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>251</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>62</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>237</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>32</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>290</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>63</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>263</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>63</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>274</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>63</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>247</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>63</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>347</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>32</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>276</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>59</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>361</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>32</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>288</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>62</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>312</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>32</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>237</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>62</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>269</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>62</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>2268</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>63</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>278</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>63</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>276</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>32</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>277</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>63</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1118</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>63</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>270</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>62</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>273</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>62</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>289</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>32</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>245</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>62</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>252</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>63</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>32</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>1497</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>62</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>268</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>63</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1511</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>62</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>251</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>63</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>1140</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>58</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>303</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>62</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>1632</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>63</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>261</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>62</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>1152</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>62</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>287</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>62</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>1261</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>62</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>261</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>62</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>642</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>62</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>299</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>58</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>710</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>63</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>281</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>62</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>254</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>32</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>253</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>62</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1550</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>62</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>258</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>62</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>1121</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>63</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>283</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>62</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>949</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>63</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>270</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>62</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>665</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>62</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>265</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>62</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>523</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>32</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>261</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>62</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1105</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>62</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>299</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>62</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>657</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>61</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>274</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>59</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>1319</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>62</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>440</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>62</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>997</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>62</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>264</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>62</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>628</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>32</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>264</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>60</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>971</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>61</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>363</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>62</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>293</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>32</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>336</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>62</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>313</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>421</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>63</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>412</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>32</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>2635</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>60</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>276</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>62</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>650</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>32</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>292</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>62</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>1717</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>62</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>297</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>62</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1784</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>62</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>416</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>62</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>455</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>62</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>357</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>62</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1459</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>62</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>363</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>62</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>698</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>32</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>299</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>62</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>982</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>55</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>299</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>62</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>285</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>32</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>295</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>62</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>2215</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>62</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>299</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>62</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>321</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>32</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>393</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>62</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>333</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>62</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>286</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>32</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>299</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>62</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>1158</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>62</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>322</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>62</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>983</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>62</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>340</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>62</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1332</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>62</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>388</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>62</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>750</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>62</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>372</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>62</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1419</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>62</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>360</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>62</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>1195</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>62</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>2817</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>62</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>2542</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>62</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>545</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>62</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1234</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>58</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>341</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>62</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>687</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>32</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>299</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>61</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>904</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>64</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>461</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>62</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>451</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>32</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>312</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>62</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>1423</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>63</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>307</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>62</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1662</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>52</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>321</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>62</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1236</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>63</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>315</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>63</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>749</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>63</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
         <v>0</v>
       </c>
     </row>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Capture image</t>
   </si>
@@ -38,6 +38,489 @@
   </si>
   <si>
     <t>End time</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:01.708644</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:02.103137</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:02.200251</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:02.369748</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:02.704023</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:02.891052</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:03.204363</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:04.214534</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:04.228764</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:04.423269</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:05.206887</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:06.450446</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:06.464138</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:06.641005</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:07.207416</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:07.387033</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:07.706156</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:09.540671</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:09.554238</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:09.755568</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:10.708832</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:11.300627</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:11.314067</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:11.492206</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:12.207970</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:13.637236</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:13.650524</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:13.849367</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:14.709305</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:15.069310</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:15.206040</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:15.393797</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:15.705895</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:16.076883</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:16.205848</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:16.396591</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:16.707415</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:17.084533</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:17.208403</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:17.397526</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:17.706090</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:18.087022</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:18.206211</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:18.400392</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:18.706574</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:19.275564</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:19.288964</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:19.482388</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:20.209130</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:21.299311</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:21.313043</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:21.527890</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:22.209167</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:23.444539</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:23.458348</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:23.644511</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:24.209698</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:25.935218</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:25.948998</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:26.165950</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:26.709704</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:27.980009</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:27.993427</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:28.199911</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:29.210044</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:29.592993</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:29.707344</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:29.914204</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:30.207642</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:30.460068</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:30.707496</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:32.084712</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:32.098204</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:32.291477</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:33.210315</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:33.716309</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:33.729959</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:33.922292</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:34.711619</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:35.656774</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:35.670172</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:35.863444</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:36.711592</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:37.156457</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:37.208571</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:37.415033</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:37.709466</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:39.250591</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:39.264107</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:39.466844</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:40.210687</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:41.300560</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:41.314092</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:41.518162</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:42.210990</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:43.350846</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:43.365008</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:43.568768</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:44.211052</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:45.392205</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:45.405454</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:45.614081</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:46.210845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:47.444268</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:47.458938</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:47.658677</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:48.211132</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:49.494403</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:49.507612</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:49.715314</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:50.711166</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:51.542839</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:51.556180</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:51.762567</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:52.712508</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:53.601448</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:53.614621</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:53.831292</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:54.711738</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:55.644097</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:55.657469</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:55.865592</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:56.711425</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:57.100415</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:57.208774</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:57.424374</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:57.708660</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:57.924728</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:58.208654</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:59.739184</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:59.752500</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:38:59.969666</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:00.711598</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:01.937353</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:01.950524</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:02.254716</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:03.211670</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:03.843330</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:03.856702</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:04.077105</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:04.712854</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:05.894649</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:05.907981</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:06.134478</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:06.711611</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:07.943088</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:07.956422</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:08.194774</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:09.211804</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:10.005819</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:10.019029</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:10.259278</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:11.211849</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:11.460195</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:11.708998</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:11.973312</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:12.209254</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:12.444201</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:12.709113</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:12.955740</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:39:13.210138</t>
   </si>
 </sst>
 </file>
@@ -369,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +886,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -412,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>297</v>
-      </c>
-      <c r="G2">
-        <v>43242.77072142186</v>
-      </c>
-      <c r="H2">
-        <v>43242.7707248635</v>
+        <v>394</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,30 +915,30 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>186</v>
-      </c>
-      <c r="G3">
-        <v>43242.77072711018</v>
-      </c>
-      <c r="H3">
-        <v>43242.77072925601</v>
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -464,50 +947,50 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>192</v>
-      </c>
-      <c r="G4">
-        <v>43242.77073293489</v>
-      </c>
-      <c r="H4">
-        <v>43242.77073516254</v>
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2077</v>
+        <v>991</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2095</v>
-      </c>
-      <c r="G5">
-        <v>43242.77073872434</v>
-      </c>
-      <c r="H5">
-        <v>43242.77076297739</v>
+        <v>1010</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -516,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>204</v>
-      </c>
-      <c r="G6">
-        <v>43242.77076313501</v>
-      </c>
-      <c r="H6">
-        <v>43242.7707654959</v>
+        <v>194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -542,24 +1025,24 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>663</v>
+        <v>1226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>680</v>
-      </c>
-      <c r="G7">
-        <v>43242.77077347906</v>
-      </c>
-      <c r="H7">
-        <v>43242.77078135705</v>
+        <v>1243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -568,24 +1051,24 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>182</v>
-      </c>
-      <c r="G8">
-        <v>43242.77078151253</v>
-      </c>
-      <c r="H8">
-        <v>43242.77078362574</v>
+        <v>177</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -594,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>807</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>826</v>
-      </c>
-      <c r="G9">
-        <v>43242.77079085588</v>
-      </c>
-      <c r="H9">
-        <v>43242.77080041396</v>
+        <v>180</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -620,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>179</v>
+        <v>1816</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>198</v>
-      </c>
-      <c r="G10">
-        <v>43242.77080056974</v>
-      </c>
-      <c r="H10">
-        <v>43242.77080285631</v>
+        <v>1835</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,82 +1123,82 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>226</v>
-      </c>
-      <c r="G11">
-        <v>43242.77081398971</v>
-      </c>
-      <c r="H11">
-        <v>43242.77081661597</v>
+        <v>201</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>205</v>
+        <v>573</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>224</v>
-      </c>
-      <c r="G12">
-        <v>43242.77081973977</v>
-      </c>
-      <c r="H12">
-        <v>43242.77082233339</v>
+        <v>591</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>325</v>
-      </c>
-      <c r="G13">
-        <v>43242.77082554249</v>
-      </c>
-      <c r="H13">
-        <v>43242.77082931006</v>
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -724,45 +1207,45 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>184</v>
+        <v>1410</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>203</v>
-      </c>
-      <c r="G14">
-        <v>43242.7708313137</v>
-      </c>
-      <c r="H14">
-        <v>43242.77083365592</v>
+        <v>1429</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>269</v>
-      </c>
-      <c r="G15">
-        <v>43242.77083709872</v>
-      </c>
-      <c r="H15">
-        <v>43242.7708402108</v>
+        <v>199</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -770,25 +1253,25 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>316</v>
-      </c>
-      <c r="G16">
-        <v>43242.77084293368</v>
-      </c>
-      <c r="H16">
-        <v>43242.77084658445</v>
+        <v>360</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -796,103 +1279,103 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>242</v>
-      </c>
-      <c r="G17">
-        <v>43242.77084867302</v>
-      </c>
-      <c r="H17">
-        <v>43242.77085146888</v>
+        <v>188</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>188</v>
-      </c>
-      <c r="G18">
-        <v>43242.77085446114</v>
-      </c>
-      <c r="H18">
-        <v>43242.77085663909</v>
+        <v>371</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>232</v>
-      </c>
-      <c r="G19">
-        <v>43242.77086026028</v>
-      </c>
-      <c r="H19">
-        <v>43242.77086293912</v>
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>405</v>
-      </c>
-      <c r="G20">
-        <v>43242.77086603478</v>
-      </c>
-      <c r="H20">
-        <v>43242.77087071913</v>
+        <v>377</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -903,22 +1386,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>205</v>
-      </c>
-      <c r="G21">
-        <v>43242.77087185499</v>
-      </c>
-      <c r="H21">
-        <v>43242.77087423009</v>
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -926,25 +1409,25 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>509</v>
+        <v>362</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>527</v>
-      </c>
-      <c r="G22">
-        <v>43242.7708776079</v>
-      </c>
-      <c r="H22">
-        <v>43242.7708837074</v>
+        <v>381</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -952,30 +1435,30 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>222</v>
-      </c>
-      <c r="G23">
-        <v>43242.77088385845</v>
-      </c>
-      <c r="H23">
-        <v>43242.77088642267</v>
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -984,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>230</v>
+        <v>549</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>248</v>
-      </c>
-      <c r="G24">
-        <v>43242.77089503169</v>
-      </c>
-      <c r="H24">
-        <v>43242.77089790612</v>
+        <v>568</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1007,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>407</v>
+        <v>174</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>426</v>
-      </c>
-      <c r="G25">
-        <v>43242.77090075397</v>
-      </c>
-      <c r="H25">
-        <v>43242.7709056813</v>
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1033,48 +1516,48 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>187</v>
+        <v>1071</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>205</v>
-      </c>
-      <c r="G26">
-        <v>43242.7709065417</v>
-      </c>
-      <c r="H26">
-        <v>43242.77090891604</v>
+        <v>1090</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>407</v>
+        <v>196</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>425</v>
-      </c>
-      <c r="G27">
-        <v>43242.770912328</v>
-      </c>
-      <c r="H27">
-        <v>43242.77091725008</v>
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1082,25 +1565,25 @@
         <v>16</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>219</v>
+        <v>1216</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>238</v>
-      </c>
-      <c r="G28">
-        <v>43242.77091811586</v>
-      </c>
-      <c r="H28">
-        <v>43242.77092086605</v>
+        <v>1235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1111,74 +1594,74 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>231</v>
-      </c>
-      <c r="G29">
-        <v>43242.77092393737</v>
-      </c>
-      <c r="H29">
-        <v>43242.77092661135</v>
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
-        <v>223</v>
+        <v>1706</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>242</v>
-      </c>
-      <c r="G30">
-        <v>43242.77092970329</v>
-      </c>
-      <c r="H30">
-        <v>43242.77093249642</v>
+        <v>1725</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>343</v>
-      </c>
-      <c r="G31">
-        <v>43242.77093547684</v>
-      </c>
-      <c r="H31">
-        <v>43242.77093944573</v>
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1192,19 +1675,19 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>1251</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>209</v>
-      </c>
-      <c r="G32">
-        <v>43242.77094126286</v>
-      </c>
-      <c r="H32">
-        <v>43242.77094368233</v>
+        <v>1270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1218,19 +1701,19 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>199</v>
-      </c>
-      <c r="G33">
-        <v>43242.77094704995</v>
-      </c>
-      <c r="H33">
-        <v>43242.7709493508</v>
+        <v>207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1244,71 +1727,71 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>2025</v>
+        <v>364</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2043</v>
-      </c>
-      <c r="G34">
-        <v>43242.7709528739</v>
-      </c>
-      <c r="H34">
-        <v>43242.77097651971</v>
+        <v>383</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>197</v>
-      </c>
-      <c r="G35">
-        <v>43242.77097667741</v>
-      </c>
-      <c r="H35">
-        <v>43242.77097896144</v>
+        <v>207</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>539</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>557</v>
-      </c>
-      <c r="G36">
-        <v>43242.77098759518</v>
-      </c>
-      <c r="H36">
-        <v>43242.77099404328</v>
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1322,50 +1805,50 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>191</v>
+        <v>1357</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>209</v>
-      </c>
-      <c r="G37">
-        <v>43242.77099419831</v>
-      </c>
-      <c r="H37">
-        <v>43242.77099661683</v>
+        <v>1378</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>267</v>
-      </c>
-      <c r="G38">
-        <v>43242.77100495558</v>
-      </c>
-      <c r="H38">
-        <v>43242.77100805095</v>
+        <v>193</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1374,45 +1857,45 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>596</v>
+        <v>487</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>614</v>
-      </c>
-      <c r="G39">
-        <v>43242.77101070462</v>
-      </c>
-      <c r="H39">
-        <v>43242.77101781669</v>
+        <v>506</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>207</v>
-      </c>
-      <c r="G40">
-        <v>43242.77101796965</v>
-      </c>
-      <c r="H40">
-        <v>43242.77102036925</v>
+        <v>192</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1423,27 +1906,27 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>255</v>
+        <v>926</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>274</v>
-      </c>
-      <c r="G41">
-        <v>43242.77102811443</v>
-      </c>
-      <c r="H41">
-        <v>43242.77103128556</v>
+        <v>945</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1452,45 +1935,45 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>662</v>
+        <v>173</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>681</v>
-      </c>
-      <c r="G42">
-        <v>43242.77103387757</v>
-      </c>
-      <c r="H42">
-        <v>43242.77104176093</v>
+        <v>193</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>177</v>
+        <v>426</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>195</v>
-      </c>
-      <c r="G43">
-        <v>43242.77104191297</v>
-      </c>
-      <c r="H43">
-        <v>43242.77104417048</v>
+        <v>444</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1504,50 +1987,50 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>1226</v>
+        <v>187</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1245</v>
-      </c>
-      <c r="G44">
-        <v>43242.77105124782</v>
-      </c>
-      <c r="H44">
-        <v>43242.7710656576</v>
+        <v>206</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>188</v>
+        <v>1522</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>207</v>
-      </c>
-      <c r="G45">
-        <v>43242.77106581177</v>
-      </c>
-      <c r="H45">
-        <v>43242.77106820301</v>
+        <v>1541</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1556,45 +2039,45 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>255</v>
-      </c>
-      <c r="G46">
-        <v>43242.7710743978</v>
-      </c>
-      <c r="H46">
-        <v>43242.77107735159</v>
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>240</v>
+        <v>1070</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>257</v>
-      </c>
-      <c r="G47">
-        <v>43242.77108014697</v>
-      </c>
-      <c r="H47">
-        <v>43242.77108312919</v>
+        <v>1089</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1608,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>284</v>
-      </c>
-      <c r="G48">
-        <v>43242.77108593353</v>
-      </c>
-      <c r="H48">
-        <v>43242.77108922548</v>
+        <v>204</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1631,22 +2114,22 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1368</v>
+        <v>1121</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1386</v>
-      </c>
-      <c r="G49">
-        <v>43242.77109172328</v>
-      </c>
-      <c r="H49">
-        <v>43242.77110776657</v>
+        <v>1140</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1654,25 +2137,25 @@
         <v>17</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>184</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="D50">
-        <v>211</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
-        <v>229</v>
-      </c>
-      <c r="G50">
-        <v>43242.77110791853</v>
-      </c>
-      <c r="H50">
-        <v>43242.77111057143</v>
+        <v>204</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1683,27 +2166,27 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>202</v>
+        <v>1162</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>220</v>
-      </c>
-      <c r="G51">
-        <v>43242.77112069019</v>
-      </c>
-      <c r="H51">
-        <v>43242.7711232423</v>
+        <v>1181</v>
+      </c>
+      <c r="G51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1712,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>260</v>
-      </c>
-      <c r="G52">
-        <v>43242.77112644268</v>
-      </c>
-      <c r="H52">
-        <v>43242.77112946157</v>
+        <v>209</v>
+      </c>
+      <c r="G52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1735,74 +2218,74 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1892</v>
+        <v>1214</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1910</v>
-      </c>
-      <c r="G53">
-        <v>43242.77113222973</v>
-      </c>
-      <c r="H53">
-        <v>43242.77115434429</v>
+        <v>1233</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
       <c r="D54">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>199</v>
-      </c>
-      <c r="G54">
-        <v>43242.77115451708</v>
-      </c>
-      <c r="H54">
-        <v>43242.77115681856</v>
+        <v>200</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>970</v>
+        <v>1265</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>990</v>
-      </c>
-      <c r="G55">
-        <v>43242.77116700009</v>
-      </c>
-      <c r="H55">
-        <v>43242.77117845742</v>
+        <v>1283</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1816,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>240</v>
-      </c>
-      <c r="G56">
-        <v>43242.77117863545</v>
-      </c>
-      <c r="H56">
-        <v>43242.7711814169</v>
+        <v>207</v>
+      </c>
+      <c r="G56" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1842,24 +2325,24 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1008</v>
+        <v>813</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1027</v>
-      </c>
-      <c r="G57">
-        <v>43242.77119013309</v>
-      </c>
-      <c r="H57">
-        <v>43242.77120201157</v>
+        <v>832</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1868,24 +2351,24 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>250</v>
-      </c>
-      <c r="G58">
-        <v>43242.77120216512</v>
-      </c>
-      <c r="H58">
-        <v>43242.77120506201</v>
+        <v>206</v>
+      </c>
+      <c r="G58" t="s">
+        <v>120</v>
+      </c>
+      <c r="H58" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1894,71 +2377,71 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>388</v>
+        <v>871</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>405</v>
-      </c>
-      <c r="G59">
-        <v>43242.77121328197</v>
-      </c>
-      <c r="H59">
-        <v>43242.77121797764</v>
+        <v>889</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>261</v>
-      </c>
-      <c r="G60">
-        <v>43242.77121903206</v>
-      </c>
-      <c r="H60">
-        <v>43242.77122204888</v>
+        <v>216</v>
+      </c>
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2098</v>
+        <v>914</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2116</v>
-      </c>
-      <c r="G61">
-        <v>43242.77122481889</v>
-      </c>
-      <c r="H61">
-        <v>43242.77124931161</v>
+        <v>932</v>
+      </c>
+      <c r="G61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1969,10 +2452,530 @@
         <v>0</v>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>190</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>208</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>371</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>389</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>198</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>215</v>
+      </c>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>198</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>216</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1512</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1530</v>
+      </c>
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>199</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>218</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1208</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1225</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>286</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>305</v>
+      </c>
+      <c r="G69" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>614</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>631</v>
+      </c>
+      <c r="G70" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>203</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>220</v>
+      </c>
+      <c r="G71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H71" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1164</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1182</v>
+      </c>
+      <c r="G72" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>1</v>
       </c>
-      <c r="G62">
-        <v>43242.77124946717</v>
+      <c r="D73">
+        <v>208</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>226</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1213</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1231</v>
+      </c>
+      <c r="G74" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>220</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>239</v>
+      </c>
+      <c r="G75" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>776</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>794</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>222</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>240</v>
+      </c>
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+      <c r="H77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>231</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>248</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>246</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>264</v>
+      </c>
+      <c r="G79" t="s">
+        <v>162</v>
+      </c>
+      <c r="H79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>217</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>235</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>228</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>247</v>
+      </c>
+      <c r="G81" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>Capture image</t>
   </si>
@@ -40,487 +40,907 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-22 18:38:01.708644</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:02.103137</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:02.200251</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:02.369748</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:02.704023</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:02.891052</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:03.204363</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:04.214534</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:04.228764</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:04.423269</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:05.206887</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:06.450446</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:06.464138</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:06.641005</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:07.207416</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:07.387033</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:07.706156</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:09.540671</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:09.554238</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:09.755568</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:10.708832</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:11.300627</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:11.314067</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:11.492206</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:12.207970</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:13.637236</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:13.650524</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:13.849367</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:14.709305</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:15.069310</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:15.206040</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:15.393797</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:15.705895</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:16.076883</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:16.205848</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:16.396591</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:16.707415</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:17.084533</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:17.208403</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:17.397526</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:17.706090</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:18.087022</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:18.206211</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:18.400392</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:18.706574</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:19.275564</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:19.288964</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:19.482388</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:20.209130</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:21.299311</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:21.313043</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:21.527890</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:22.209167</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:23.444539</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:23.458348</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:23.644511</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:24.209698</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:25.935218</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:25.948998</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:26.165950</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:26.709704</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:27.980009</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:27.993427</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:28.199911</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:29.210044</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:29.592993</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:29.707344</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:29.914204</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:30.207642</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:30.460068</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:30.707496</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:32.084712</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:32.098204</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:32.291477</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:33.210315</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:33.716309</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:33.729959</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:33.922292</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:34.711619</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:35.656774</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:35.670172</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:35.863444</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:36.711592</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:37.156457</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:37.208571</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:37.415033</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:37.709466</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:39.250591</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:39.264107</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:39.466844</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:40.210687</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:41.300560</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:41.314092</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:41.518162</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:42.210990</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:43.350846</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:43.365008</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:43.568768</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:44.211052</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:45.392205</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:45.405454</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:45.614081</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:46.210845</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:47.444268</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:47.458938</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:47.658677</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:48.211132</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:49.494403</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:49.507612</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:49.715314</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:50.711166</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:51.542839</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:51.556180</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:51.762567</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:52.712508</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:53.601448</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:53.614621</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:53.831292</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:54.711738</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:55.644097</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:55.657469</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:55.865592</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:56.711425</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:57.100415</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:57.208774</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:57.424374</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:57.708660</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:57.924728</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:58.208654</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:59.739184</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:59.752500</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:38:59.969666</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:00.711598</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:01.937353</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:01.950524</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:02.254716</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:03.211670</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:03.843330</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:03.856702</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:04.077105</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:04.712854</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:05.894649</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:05.907981</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:06.134478</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:06.711611</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:07.943088</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:07.956422</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:08.194774</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:09.211804</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:10.005819</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:10.019029</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:10.259278</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:11.211849</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:11.460195</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:11.708998</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:11.973312</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:12.209254</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:12.444201</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:12.709113</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:12.955740</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:39:13.210138</t>
+    <t>2018-05-22 18:48:10.233270</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:11.642584</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:11.660092</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:11.836196</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:11.877827</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.064233</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.079715</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.264315</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.308983</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.496213</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.509510</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.696901</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.741310</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.930862</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:12.946606</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.122304</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.173018</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.364960</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.380711</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.564226</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.604615</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.786056</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.803252</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:13.985547</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.036721</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.214036</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.232170</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.414410</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.431637</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.629209</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.646125</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.828615</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:14.847966</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.034928</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.050847</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.257706</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.299162</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.507238</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.524872</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.710691</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.764630</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.948315</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:15.963602</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.151047</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.196083</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.380784</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.395671</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.578839</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.628408</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.884300</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:16.898839</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.110614</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.159834</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.377260</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.396281</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.598710</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.641517</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.839652</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:17.855845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.055925</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.111201</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.302533</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.318648</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.515426</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.555827</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.757124</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.771301</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:18.966834</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.020306</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.219764</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.235225</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.431712</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.489745</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.701309</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.721823</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.924438</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:19.968332</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.169848</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.183948</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.382861</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.432200</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.630176</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.646227</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.844420</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:20.901650</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.109562</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.127491</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.334611</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.378935</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.587222</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.603336</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.804638</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:21.844207</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.044447</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.058885</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.266369</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.313617</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.528418</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.547974</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.784311</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:22.824302</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.041461</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.057420</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.294530</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.339055</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.574098</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.588438</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.828547</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:23.871799</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.088692</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.109169</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.316974</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.369469</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.611859</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:24.626457</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.037779</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.083247</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.289655</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.304040</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.526082</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.564649</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.829449</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:25.847670</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.068498</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.110823</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.336310</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.351834</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.561268</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.611082</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.862007</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:26.876551</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.083231</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.126304</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.357845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.375139</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.593780</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.645653</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.869801</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:27.886341</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.101433</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.139257</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.351110</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.368067</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.586223</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.637676</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.871025</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:28.886868</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.122704</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.169390</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.572919</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.587179</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.834184</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:29.888097</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.342046</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.357255</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.616574</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.664418</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.905312</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:30.920606</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.144473</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.195574</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.455268</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.472093</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.699335</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:31.741938</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.031864</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.046032</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.265819</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.309019</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.529474</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.547697</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.768936</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:32.807245</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.033310</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.051580</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.321301</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.339069</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.599196</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.637517</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.867606</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:33.883893</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.149566</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.202591</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.432431</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.449899</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.695417</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:34.733799</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.211700</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.228208</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.497991</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.552406</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.844144</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:35.859464</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.136833</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.178926</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.421363</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.436692</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.747280</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:36.794423</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.031725</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.045859</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.272871</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.324997</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.632697</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.649416</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.934283</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:37.972790</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.211041</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.225311</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.510886</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.554389</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.825708</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:38.845317</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.171955</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.219238</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.564226</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.579296</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.830466</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:39.883379</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.190049</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.204023</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.514824</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.564240</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.799768</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:40.813866</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.284753</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.333022</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.612444</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.627442</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.896514</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:41.943732</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.210249</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.229546</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.474496</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.524558</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.810513</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:42.826530</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.133284</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.172382</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.448027</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.463474</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.722166</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:43.770489</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.012482</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.027811</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.269608</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.316861</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.765247</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:44.780151</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.081121</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.132468</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.370886</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.384628</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.723891</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:45.763835</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.058805</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.075047</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.368189</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.411457</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.664456</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.679567</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.940024</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:46.993925</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.254713</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.273266</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.533973</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.574333</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.818420</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:47.834831</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.124812</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.138843</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.419364</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.471026</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.747714</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:48.766098</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.048407</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.065315</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.348012</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.364160</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.610507</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.650697</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.921904</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:49.941404</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.192526</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.231693</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.481238</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.496663</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.738396</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:50.778288</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.040491</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.060552</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.310557</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.366035</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.627837</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.650264</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.922690</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:51.976180</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:52.233348</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:52.248253</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:52.553407</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:48:52.591044</t>
   </si>
 </sst>
 </file>
@@ -852,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,22 +1306,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>238</v>
+        <v>1326</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>394</v>
+        <v>1409</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -912,10 +1332,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -927,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -938,22 +1358,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -964,7 +1384,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -973,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>991</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1010</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -990,22 +1410,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1016,7 +1436,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1025,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1226</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1243</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -1042,22 +1462,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1068,7 +1488,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1077,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -1094,7 +1514,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1103,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1816</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1835</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1120,22 +1540,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
+        <v>165</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>183</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>201</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -1152,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>573</v>
+        <v>162</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>591</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1172,22 +1592,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1198,22 +1618,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1410</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1429</v>
+        <v>177</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -1230,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -1250,7 +1670,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1259,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>342</v>
+        <v>179</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>360</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
@@ -1276,22 +1696,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1302,7 +1722,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1311,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -1328,7 +1748,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1337,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -1363,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -1380,7 +1800,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1389,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -1406,22 +1826,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>48</v>
@@ -1432,7 +1852,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1441,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -1464,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>549</v>
+        <v>165</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>568</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -1484,7 +1904,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1493,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G25" t="s">
         <v>54</v>
@@ -1510,22 +1930,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1071</v>
+        <v>237</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1090</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
         <v>56</v>
@@ -1536,7 +1956,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1545,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>58</v>
@@ -1562,22 +1982,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>1216</v>
+        <v>198</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1235</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>60</v>
@@ -1588,22 +2008,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
         <v>62</v>
@@ -1620,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1706</v>
+        <v>179</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1725</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
         <v>64</v>
@@ -1640,7 +2060,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1649,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>66</v>
@@ -1669,19 +2089,19 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1251</v>
+        <v>172</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1270</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
         <v>68</v>
@@ -1692,22 +2112,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
@@ -1718,7 +2138,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1727,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="G34" t="s">
         <v>72</v>
@@ -1744,22 +2164,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
         <v>74</v>
@@ -1779,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G36" t="s">
         <v>76</v>
@@ -1799,19 +2219,19 @@
         <v>17</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1357</v>
+        <v>177</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1378</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
@@ -1822,22 +2242,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
@@ -1848,7 +2268,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1857,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>487</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>506</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
@@ -1880,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
@@ -1900,22 +2320,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>926</v>
+        <v>179</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>945</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -1926,22 +2346,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
         <v>88</v>
@@ -1955,19 +2375,19 @@
         <v>17</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>426</v>
+        <v>179</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="G43" t="s">
         <v>90</v>
@@ -1978,7 +2398,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1987,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -2004,7 +2424,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2013,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1522</v>
+        <v>188</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1541</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
@@ -2030,22 +2450,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
         <v>96</v>
@@ -2062,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>1070</v>
+        <v>182</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1089</v>
+        <v>202</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -2082,22 +2502,22 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -2108,7 +2528,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2117,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1121</v>
+        <v>188</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1140</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
         <v>102</v>
@@ -2134,22 +2554,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G50" t="s">
         <v>104</v>
@@ -2160,22 +2580,22 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1162</v>
+        <v>216</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1181</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
         <v>106</v>
@@ -2186,22 +2606,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G52" t="s">
         <v>108</v>
@@ -2218,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1214</v>
+        <v>216</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1233</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -2241,19 +2661,19 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
         <v>112</v>
@@ -2264,7 +2684,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2273,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1265</v>
+        <v>221</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1283</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -2290,22 +2710,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
         <v>116</v>
@@ -2316,22 +2736,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>813</v>
+        <v>188</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>832</v>
+        <v>208</v>
       </c>
       <c r="G57" t="s">
         <v>118</v>
@@ -2342,22 +2762,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
         <v>120</v>
@@ -2377,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>871</v>
+        <v>392</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>889</v>
+        <v>412</v>
       </c>
       <c r="G59" t="s">
         <v>122</v>
@@ -2394,7 +2814,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2403,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G60" t="s">
         <v>124</v>
@@ -2426,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>914</v>
+        <v>202</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>932</v>
+        <v>222</v>
       </c>
       <c r="G61" t="s">
         <v>126</v>
@@ -2446,22 +2866,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="G62" t="s">
         <v>128</v>
@@ -2472,22 +2892,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>371</v>
+        <v>200</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="G63" t="s">
         <v>130</v>
@@ -2498,22 +2918,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G64" t="s">
         <v>132</v>
@@ -2524,22 +2944,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
         <v>134</v>
@@ -2553,19 +2973,19 @@
         <v>17</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1512</v>
+        <v>230</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1530</v>
+        <v>251</v>
       </c>
       <c r="G66" t="s">
         <v>136</v>
@@ -2576,22 +2996,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G67" t="s">
         <v>138</v>
@@ -2602,7 +3022,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2611,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1208</v>
+        <v>212</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1225</v>
+        <v>232</v>
       </c>
       <c r="G68" t="s">
         <v>140</v>
@@ -2628,7 +3048,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2637,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="G69" t="s">
         <v>142</v>
@@ -2654,22 +3074,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>614</v>
+        <v>204</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>631</v>
+        <v>224</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
@@ -2680,7 +3100,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2689,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G71" t="s">
         <v>146</v>
@@ -2715,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1164</v>
+        <v>192</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1182</v>
+        <v>212</v>
       </c>
       <c r="G72" t="s">
         <v>148</v>
@@ -2735,19 +3155,19 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G73" t="s">
         <v>150</v>
@@ -2758,7 +3178,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2767,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>1213</v>
+        <v>213</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1231</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s">
         <v>152</v>
@@ -2784,7 +3204,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2793,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G75" t="s">
         <v>154</v>
@@ -2813,19 +3233,19 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>776</v>
+        <v>384</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>794</v>
+        <v>404</v>
       </c>
       <c r="G76" t="s">
         <v>156</v>
@@ -2836,22 +3256,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
         <v>158</v>
@@ -2871,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>231</v>
+        <v>434</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>248</v>
+        <v>454</v>
       </c>
       <c r="G78" t="s">
         <v>160</v>
@@ -2891,19 +3311,19 @@
         <v>17</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G79" t="s">
         <v>162</v>
@@ -2914,22 +3334,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G80" t="s">
         <v>164</v>
@@ -2940,22 +3360,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="G81" t="s">
         <v>166</v>
@@ -2966,16 +3386,1836 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>241</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>259</v>
       </c>
       <c r="G82" t="s">
         <v>168</v>
+      </c>
+      <c r="H82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>208</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>227</v>
+      </c>
+      <c r="G83" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>270</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>290</v>
+      </c>
+      <c r="G84" t="s">
+        <v>172</v>
+      </c>
+      <c r="H84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>220</v>
+      </c>
+      <c r="G85" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>201</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>220</v>
+      </c>
+      <c r="G86" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>201</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>221</v>
+      </c>
+      <c r="G87" t="s">
+        <v>178</v>
+      </c>
+      <c r="H87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>207</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>226</v>
+      </c>
+      <c r="G88" t="s">
+        <v>180</v>
+      </c>
+      <c r="H88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>251</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>269</v>
+      </c>
+      <c r="G89" t="s">
+        <v>182</v>
+      </c>
+      <c r="H89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>241</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>260</v>
+      </c>
+      <c r="G90" t="s">
+        <v>184</v>
+      </c>
+      <c r="H90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>211</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>230</v>
+      </c>
+      <c r="G91" t="s">
+        <v>186</v>
+      </c>
+      <c r="H91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>247</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>265</v>
+      </c>
+      <c r="G92" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>211</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>229</v>
+      </c>
+      <c r="G93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>226</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>245</v>
+      </c>
+      <c r="G94" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>459</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>478</v>
+      </c>
+      <c r="G95" t="s">
+        <v>194</v>
+      </c>
+      <c r="H95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>250</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>270</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+      <c r="H96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>272</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>292</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>258</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>278</v>
+      </c>
+      <c r="G98" t="s">
+        <v>200</v>
+      </c>
+      <c r="H98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>223</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>242</v>
+      </c>
+      <c r="G99" t="s">
+        <v>202</v>
+      </c>
+      <c r="H99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>18</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>292</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>310</v>
+      </c>
+      <c r="G100" t="s">
+        <v>204</v>
+      </c>
+      <c r="H100" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>218</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>238</v>
+      </c>
+      <c r="G101" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>18</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>207</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>227</v>
+      </c>
+      <c r="G102" t="s">
+        <v>208</v>
+      </c>
+      <c r="H102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>288</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>308</v>
+      </c>
+      <c r="G103" t="s">
+        <v>210</v>
+      </c>
+      <c r="H103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>266</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>285</v>
+      </c>
+      <c r="G104" t="s">
+        <v>212</v>
+      </c>
+      <c r="H104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>218</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>238</v>
+      </c>
+      <c r="G105" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>17</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>266</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>286</v>
+      </c>
+      <c r="G106" t="s">
+        <v>216</v>
+      </c>
+      <c r="H106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>252</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>272</v>
+      </c>
+      <c r="G107" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>307</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>327</v>
+      </c>
+      <c r="G108" t="s">
+        <v>220</v>
+      </c>
+      <c r="H108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>325</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>345</v>
+      </c>
+      <c r="G109" t="s">
+        <v>222</v>
+      </c>
+      <c r="H109" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>232</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>251</v>
+      </c>
+      <c r="G110" t="s">
+        <v>224</v>
+      </c>
+      <c r="H110" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>287</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>307</v>
+      </c>
+      <c r="G111" t="s">
+        <v>226</v>
+      </c>
+      <c r="H111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>291</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>311</v>
+      </c>
+      <c r="G112" t="s">
+        <v>228</v>
+      </c>
+      <c r="H112" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>216</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>236</v>
+      </c>
+      <c r="G113" t="s">
+        <v>230</v>
+      </c>
+      <c r="H113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>452</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>471</v>
+      </c>
+      <c r="G114" t="s">
+        <v>232</v>
+      </c>
+      <c r="H114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>260</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>279</v>
+      </c>
+      <c r="G115" t="s">
+        <v>234</v>
+      </c>
+      <c r="H115" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>250</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>269</v>
+      </c>
+      <c r="G116" t="s">
+        <v>236</v>
+      </c>
+      <c r="H116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>248</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>266</v>
+      </c>
+      <c r="G117" t="s">
+        <v>238</v>
+      </c>
+      <c r="H117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>226</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>245</v>
+      </c>
+      <c r="G118" t="s">
+        <v>240</v>
+      </c>
+      <c r="H118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>267</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>285</v>
+      </c>
+      <c r="G119" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>288</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>307</v>
+      </c>
+      <c r="G120" t="s">
+        <v>244</v>
+      </c>
+      <c r="H120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>256</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>276</v>
+      </c>
+      <c r="G121" t="s">
+        <v>246</v>
+      </c>
+      <c r="H121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>240</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>259</v>
+      </c>
+      <c r="G122" t="s">
+        <v>248</v>
+      </c>
+      <c r="H122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>223</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>242</v>
+      </c>
+      <c r="G123" t="s">
+        <v>250</v>
+      </c>
+      <c r="H123" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>223</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>241</v>
+      </c>
+      <c r="G124" t="s">
+        <v>252</v>
+      </c>
+      <c r="H124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>430</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>448</v>
+      </c>
+      <c r="G125" t="s">
+        <v>254</v>
+      </c>
+      <c r="H125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>17</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>282</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>301</v>
+      </c>
+      <c r="G126" t="s">
+        <v>256</v>
+      </c>
+      <c r="H126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>219</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>239</v>
+      </c>
+      <c r="G127" t="s">
+        <v>258</v>
+      </c>
+      <c r="H127" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>320</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>339</v>
+      </c>
+      <c r="G128" t="s">
+        <v>260</v>
+      </c>
+      <c r="H128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>276</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>295</v>
+      </c>
+      <c r="G129" t="s">
+        <v>262</v>
+      </c>
+      <c r="H129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>274</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>293</v>
+      </c>
+      <c r="G130" t="s">
+        <v>264</v>
+      </c>
+      <c r="H130" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>234</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>253</v>
+      </c>
+      <c r="G131" t="s">
+        <v>266</v>
+      </c>
+      <c r="H131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>17</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>241</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>260</v>
+      </c>
+      <c r="G132" t="s">
+        <v>268</v>
+      </c>
+      <c r="H132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>241</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>261</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+      <c r="H133" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>241</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>261</v>
+      </c>
+      <c r="G134" t="s">
+        <v>272</v>
+      </c>
+      <c r="H134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>225</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>244</v>
+      </c>
+      <c r="G135" t="s">
+        <v>274</v>
+      </c>
+      <c r="H135" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>271</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>290</v>
+      </c>
+      <c r="G136" t="s">
+        <v>276</v>
+      </c>
+      <c r="H136" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>18</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>262</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>280</v>
+      </c>
+      <c r="G137" t="s">
+        <v>278</v>
+      </c>
+      <c r="H137" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>257</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>277</v>
+      </c>
+      <c r="G138" t="s">
+        <v>280</v>
+      </c>
+      <c r="H138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>263</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>282</v>
+      </c>
+      <c r="G139" t="s">
+        <v>282</v>
+      </c>
+      <c r="H139" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>263</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>283</v>
+      </c>
+      <c r="G140" t="s">
+        <v>284</v>
+      </c>
+      <c r="H140" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>17</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>227</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>246</v>
+      </c>
+      <c r="G141" t="s">
+        <v>286</v>
+      </c>
+      <c r="H141" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>252</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>271</v>
+      </c>
+      <c r="G142" t="s">
+        <v>288</v>
+      </c>
+      <c r="H142" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>232</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>251</v>
+      </c>
+      <c r="G143" t="s">
+        <v>290</v>
+      </c>
+      <c r="H143" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>18</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>231</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>249</v>
+      </c>
+      <c r="G144" t="s">
+        <v>292</v>
+      </c>
+      <c r="H144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>223</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>241</v>
+      </c>
+      <c r="G145" t="s">
+        <v>294</v>
+      </c>
+      <c r="H145" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>243</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>262</v>
+      </c>
+      <c r="G146" t="s">
+        <v>296</v>
+      </c>
+      <c r="H146" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>231</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>249</v>
+      </c>
+      <c r="G147" t="s">
+        <v>298</v>
+      </c>
+      <c r="H147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>242</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>262</v>
+      </c>
+      <c r="G148" t="s">
+        <v>300</v>
+      </c>
+      <c r="H148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>253</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>273</v>
+      </c>
+      <c r="G149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H149" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>238</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>257</v>
+      </c>
+      <c r="G150" t="s">
+        <v>304</v>
+      </c>
+      <c r="H150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>286</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>305</v>
+      </c>
+      <c r="G151" t="s">
+        <v>306</v>
+      </c>
+      <c r="H151" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -40,907 +40,907 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-22 18:48:10.233270</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:11.642584</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:11.660092</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:11.836196</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:11.877827</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.064233</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.079715</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.264315</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.308983</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.496213</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.509510</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.696901</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.741310</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.930862</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:12.946606</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.122304</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.173018</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.364960</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.380711</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.564226</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.604615</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.786056</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.803252</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:13.985547</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.036721</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.214036</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.232170</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.414410</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.431637</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.629209</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.646125</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.828615</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:14.847966</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.034928</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.050847</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.257706</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.299162</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.507238</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.524872</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.710691</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.764630</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.948315</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:15.963602</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.151047</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.196083</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.380784</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.395671</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.578839</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.628408</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.884300</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:16.898839</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.110614</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.159834</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.377260</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.396281</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.598710</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.641517</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.839652</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:17.855845</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.055925</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.111201</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.302533</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.318648</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.515426</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.555827</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.757124</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.771301</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:18.966834</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.020306</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.219764</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.235225</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.431712</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.489745</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.701309</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.721823</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.924438</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:19.968332</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.169848</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.183948</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.382861</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.432200</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.630176</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.646227</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.844420</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:20.901650</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.109562</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.127491</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.334611</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.378935</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.587222</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.603336</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.804638</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:21.844207</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.044447</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.058885</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.266369</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.313617</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.528418</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.547974</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.784311</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:22.824302</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.041461</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.057420</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.294530</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.339055</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.574098</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.588438</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.828547</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:23.871799</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.088692</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.109169</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.316974</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.369469</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.611859</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:24.626457</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.037779</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.083247</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.289655</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.304040</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.526082</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.564649</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.829449</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:25.847670</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.068498</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.110823</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.336310</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.351834</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.561268</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.611082</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.862007</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:26.876551</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.083231</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.126304</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.357845</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.375139</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.593780</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.645653</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.869801</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:27.886341</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.101433</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.139257</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.351110</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.368067</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.586223</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.637676</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.871025</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:28.886868</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.122704</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.169390</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.572919</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.587179</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.834184</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:29.888097</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.342046</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.357255</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.616574</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.664418</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.905312</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:30.920606</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.144473</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.195574</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.455268</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.472093</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.699335</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:31.741938</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.031864</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.046032</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.265819</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.309019</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.529474</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.547697</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.768936</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:32.807245</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.033310</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.051580</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.321301</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.339069</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.599196</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.637517</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.867606</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:33.883893</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.149566</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.202591</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.432431</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.449899</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.695417</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:34.733799</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.211700</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.228208</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.497991</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.552406</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.844144</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:35.859464</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.136833</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.178926</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.421363</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.436692</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.747280</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:36.794423</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.031725</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.045859</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.272871</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.324997</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.632697</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.649416</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.934283</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:37.972790</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.211041</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.225311</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.510886</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.554389</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.825708</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:38.845317</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.171955</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.219238</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.564226</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.579296</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.830466</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:39.883379</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.190049</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.204023</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.514824</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.564240</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.799768</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:40.813866</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.284753</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.333022</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.612444</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.627442</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.896514</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:41.943732</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.210249</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.229546</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.474496</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.524558</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.810513</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:42.826530</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.133284</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.172382</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.448027</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.463474</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.722166</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:43.770489</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.012482</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.027811</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.269608</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.316861</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.765247</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:44.780151</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.081121</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.132468</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.370886</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.384628</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.723891</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:45.763835</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.058805</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.075047</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.368189</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.411457</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.664456</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.679567</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.940024</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:46.993925</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.254713</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.273266</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.533973</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.574333</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.818420</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:47.834831</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.124812</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.138843</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.419364</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.471026</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.747714</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:48.766098</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.048407</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.065315</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.348012</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.364160</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.610507</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.650697</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.921904</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:49.941404</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.192526</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.231693</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.481238</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.496663</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.738396</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:50.778288</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.040491</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.060552</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.310557</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.366035</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.627837</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.650264</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.922690</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:51.976180</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:52.233348</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:52.248253</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:52.553407</t>
-  </si>
-  <si>
-    <t>2018-05-22 18:48:52.591044</t>
+    <t>2018-05-22 18:52:20.294244</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.503376</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.528430</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.705392</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.727843</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.907442</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:21.931596</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.119751</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.166832</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.363437</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.384125</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.575030</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.620432</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.808013</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:22.824825</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.011499</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.051494</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.241943</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.260125</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.464563</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.506142</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.700456</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.715409</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.904120</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:23.949213</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.158056</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.175737</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.375255</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.414454</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.604561</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.622068</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.825458</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:24.870254</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.068595</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.088816</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.279377</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.322930</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.519188</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.534931</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.718273</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.739055</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.928115</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:25.944919</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.137440</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.161408</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.348195</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.387673</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.573267</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.593541</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.780185</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:26.820572</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.011265</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.031245</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.226565</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.274417</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.489188</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.504511</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.726261</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.771814</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:27.989642</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.010731</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.214755</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.236255</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.437601</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.480500</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.710703</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.730800</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.940870</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:28.978932</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.178650</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.199964</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.403390</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.444431</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.672639</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.687405</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.934187</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:29.988805</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.244133</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.262877</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.478576</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.520541</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.746795</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.763986</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:30.982273</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.000438</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.225057</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.261915</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.485900</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.500932</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.724694</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.760530</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.979695</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:31.995204</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.198672</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.237780</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.449713</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.471404</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.670461</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.686715</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.882700</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:32.924661</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.159676</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.174369</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.401733</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.445128</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.653224</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.671881</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.904376</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:33.944755</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.172733</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.192729</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.409887</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.454080</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.660030</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.681189</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.888060</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:34.931563</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.155012</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.171871</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.420583</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.461910</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.670923</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.688637</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.916975</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:35.962147</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.174972</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.199284</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.411766</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.433064</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.643343</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.681110</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.897363</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:36.917503</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.145691</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.190494</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.403946</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.421872</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.642419</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.690718</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.924487</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:37.940379</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.160393</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.198057</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.423024</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.441916</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.686225</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:38.727237</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.120238</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.135745</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.403722</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.450920</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.685423</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.700658</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.928161</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:39.972113</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.198622</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.214402</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.442055</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.481709</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.705186</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.723268</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.937953</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:40.981655</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.201590</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.219885</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.442596</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.489048</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.722778</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.746156</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:41.993886</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.014682</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.252038</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.300335</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.527845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.543850</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.783245</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:42.803255</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.050951</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.096197</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.327109</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.345373</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.587259</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.629003</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.856463</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:43.875037</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.112608</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.134466</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.381885</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.426591</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.669296</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:44.686262</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.169246</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.210564</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.443516</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.459852</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.689740</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.732493</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.959503</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:46.975897</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.208423</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.224566</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.489538</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.539035</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.807288</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:47.826768</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.088348</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.127471</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.392845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.409969</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.646096</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.694229</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.928643</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:48.945508</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.179593</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.223961</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.506863</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.529160</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.775364</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:49.793206</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.025422</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.065439</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.318339</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.333494</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.578162</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.624486</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.859274</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:50.882670</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.120241</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.162326</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.463618</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.483086</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.727601</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:51.774702</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.054543</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.077672</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.348978</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.369373</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.616046</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:52.658866</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.080627</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.099283</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.340178</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.389516</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.631599</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:53.649197</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:54.160124</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:54.199782</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:54.442610</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:54.461398</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:54.974491</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.019063</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.259154</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.281978</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.523948</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.563197</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.897845</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:55.916892</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.175410</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.215696</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.472752</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.491323</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.759195</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:56.813407</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.066022</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.085686</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.341461</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.358283</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.657345</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.673298</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.940223</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:57.979202</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.250388</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.271716</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.545138</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.586691</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.850095</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:58.875698</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.196558</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.240684</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.513335</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.534957</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.782985</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:52:59.828095</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.086793</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.103376</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.353008</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.393058</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.658778</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.676197</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.923732</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:00.968554</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.224601</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.241217</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.545997</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.590072</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.950355</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:01.965028</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:02.345901</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:02.387624</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:02.664192</t>
+  </si>
+  <si>
+    <t>2018-05-22 18:53:02.680819</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1315,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1326</v>
+        <v>1089</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1409</v>
+        <v>1209</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1416,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1442,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -1465,19 +1465,19 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1595,19 +1595,19 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -1618,22 +1618,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -1644,22 +1644,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1705,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -1722,22 +1722,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -1754,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
         <v>44</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -1826,22 +1826,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>48</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
@@ -1884,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -1913,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>54</v>
@@ -1939,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
         <v>56</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
         <v>58</v>
@@ -1982,22 +1982,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
         <v>60</v>
@@ -2011,19 +2011,19 @@
         <v>17</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
         <v>62</v>
@@ -2037,19 +2037,19 @@
         <v>17</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
         <v>64</v>
@@ -2066,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>66</v>
@@ -2086,22 +2086,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="G32" t="s">
         <v>68</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
         <v>70</v>
@@ -2138,22 +2138,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
         <v>72</v>
@@ -2164,22 +2164,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
         <v>74</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
         <v>76</v>
@@ -2216,22 +2216,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
@@ -2242,22 +2242,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
@@ -2268,22 +2268,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
         <v>86</v>
@@ -2355,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
         <v>88</v>
@@ -2372,22 +2372,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
         <v>90</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -2430,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="G46" t="s">
         <v>96</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G47" t="s">
         <v>98</v>
@@ -2505,19 +2505,19 @@
         <v>17</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G48" t="s">
         <v>100</v>
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G49" t="s">
         <v>102</v>
@@ -2554,22 +2554,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G50" t="s">
         <v>104</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2589,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="G51" t="s">
         <v>106</v>
@@ -2606,22 +2606,22 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
         <v>108</v>
@@ -2641,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -2661,19 +2661,19 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>112</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G55" t="s">
         <v>114</v>
@@ -2710,22 +2710,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G56" t="s">
         <v>116</v>
@@ -2736,22 +2736,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G57" t="s">
         <v>118</v>
@@ -2762,22 +2762,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G58" t="s">
         <v>120</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="G59" t="s">
         <v>122</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2823,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="G60" t="s">
         <v>124</v>
@@ -2840,22 +2840,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G61" t="s">
         <v>126</v>
@@ -2875,13 +2875,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
         <v>128</v>
@@ -2898,16 +2898,16 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G63" t="s">
         <v>130</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G64" t="s">
         <v>132</v>
@@ -2944,22 +2944,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G65" t="s">
         <v>134</v>
@@ -2973,19 +2973,19 @@
         <v>17</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="G66" t="s">
         <v>136</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3005,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G67" t="s">
         <v>138</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G68" t="s">
         <v>140</v>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G69" t="s">
         <v>142</v>
@@ -3083,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G70" t="s">
         <v>144</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3109,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s">
         <v>146</v>
@@ -3129,19 +3129,19 @@
         <v>17</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G72" t="s">
         <v>148</v>
@@ -3155,19 +3155,19 @@
         <v>17</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
         <v>150</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G74" t="s">
         <v>152</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3213,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>216</v>
+        <v>374</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="G75" t="s">
         <v>154</v>
@@ -3233,19 +3233,19 @@
         <v>17</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>384</v>
+        <v>249</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="G76" t="s">
         <v>156</v>
@@ -3256,22 +3256,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G77" t="s">
         <v>158</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>434</v>
+        <v>209</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>454</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
         <v>160</v>
@@ -3311,19 +3311,19 @@
         <v>17</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G79" t="s">
         <v>162</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G80" t="s">
         <v>164</v>
@@ -3360,16 +3360,16 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="G82" t="s">
         <v>168</v>
@@ -3412,22 +3412,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G83" t="s">
         <v>170</v>
@@ -3447,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="G84" t="s">
         <v>172</v>
@@ -3473,13 +3473,13 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
         <v>174</v>
@@ -3493,19 +3493,19 @@
         <v>17</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
         <v>176</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="G87" t="s">
         <v>178</v>
@@ -3545,19 +3545,19 @@
         <v>17</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G88" t="s">
         <v>180</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="G89" t="s">
         <v>182</v>
@@ -3597,19 +3597,19 @@
         <v>17</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G90" t="s">
         <v>184</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G91" t="s">
         <v>186</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G92" t="s">
         <v>188</v>
@@ -3672,22 +3672,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G93" t="s">
         <v>190</v>
@@ -3698,22 +3698,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G94" t="s">
         <v>192</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3733,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>459</v>
+        <v>224</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>478</v>
+        <v>248</v>
       </c>
       <c r="G95" t="s">
         <v>194</v>
@@ -3756,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="G96" t="s">
         <v>196</v>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>272</v>
+        <v>1463</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>292</v>
+        <v>1483</v>
       </c>
       <c r="G97" t="s">
         <v>198</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="G98" t="s">
         <v>200</v>
@@ -3837,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
         <v>202</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
         <v>204</v>
@@ -3880,22 +3880,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G101" t="s">
         <v>206</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="G102" t="s">
         <v>208</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3941,13 +3941,13 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="G103" t="s">
         <v>210</v>
@@ -3958,22 +3958,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="G104" t="s">
         <v>212</v>
@@ -3984,22 +3984,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G105" t="s">
         <v>214</v>
@@ -4010,22 +4010,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="G106" t="s">
         <v>216</v>
@@ -4042,16 +4042,16 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G107" t="s">
         <v>218</v>
@@ -4065,19 +4065,19 @@
         <v>17</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>220</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4097,13 +4097,13 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="G109" t="s">
         <v>222</v>
@@ -4120,16 +4120,16 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G110" t="s">
         <v>224</v>
@@ -4143,19 +4143,19 @@
         <v>17</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="G111" t="s">
         <v>226</v>
@@ -4175,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="G112" t="s">
         <v>228</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G113" t="s">
         <v>230</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4227,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>452</v>
+        <v>214</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="G114" t="s">
         <v>232</v>
@@ -4250,16 +4250,16 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="G115" t="s">
         <v>234</v>
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G116" t="s">
         <v>236</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G117" t="s">
         <v>238</v>
@@ -4331,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="G118" t="s">
         <v>240</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G119" t="s">
         <v>242</v>
@@ -4377,19 +4377,19 @@
         <v>17</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="G120" t="s">
         <v>244</v>
@@ -4400,22 +4400,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>276</v>
+        <v>422</v>
       </c>
       <c r="G121" t="s">
         <v>246</v>
@@ -4429,19 +4429,19 @@
         <v>17</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G122" t="s">
         <v>248</v>
@@ -4455,13 +4455,13 @@
         <v>17</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4478,22 +4478,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>223</v>
+        <v>491</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>241</v>
+        <v>511</v>
       </c>
       <c r="G124" t="s">
         <v>252</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4513,13 +4513,13 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>430</v>
+        <v>223</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>448</v>
+        <v>242</v>
       </c>
       <c r="G125" t="s">
         <v>254</v>
@@ -4536,16 +4536,16 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="G126" t="s">
         <v>256</v>
@@ -4559,19 +4559,19 @@
         <v>17</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G127" t="s">
         <v>258</v>
@@ -4582,22 +4582,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="G128" t="s">
         <v>260</v>
@@ -4608,22 +4608,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G129" t="s">
         <v>262</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4643,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="G130" t="s">
         <v>264</v>
@@ -4669,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G131" t="s">
         <v>266</v>
@@ -4695,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G132" t="s">
         <v>268</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4721,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G133" t="s">
         <v>270</v>
@@ -4744,16 +4744,16 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G134" t="s">
         <v>272</v>
@@ -4767,19 +4767,19 @@
         <v>17</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="G135" t="s">
         <v>274</v>
@@ -4790,22 +4790,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="G136" t="s">
         <v>276</v>
@@ -4816,22 +4816,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G137" t="s">
         <v>278</v>
@@ -4845,19 +4845,19 @@
         <v>17</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G138" t="s">
         <v>280</v>
@@ -4874,16 +4874,16 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
+        <v>244</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
         <v>263</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>282</v>
       </c>
       <c r="G139" t="s">
         <v>282</v>
@@ -4903,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="G140" t="s">
         <v>284</v>
@@ -4926,16 +4926,16 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G141" t="s">
         <v>286</v>
@@ -4955,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G142" t="s">
         <v>288</v>
@@ -4975,19 +4975,19 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G143" t="s">
         <v>290</v>
@@ -4998,22 +4998,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G144" t="s">
         <v>292</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5033,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G145" t="s">
         <v>294</v>
@@ -5056,16 +5056,16 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G146" t="s">
         <v>296</v>
@@ -5079,19 +5079,19 @@
         <v>17</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G147" t="s">
         <v>298</v>
@@ -5108,16 +5108,16 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="G148" t="s">
         <v>300</v>
@@ -5137,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="G149" t="s">
         <v>302</v>
@@ -5163,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>238</v>
+        <v>361</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="G150" t="s">
         <v>304</v>
@@ -5183,19 +5183,19 @@
         <v>17</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="G151" t="s">
         <v>306</v>
@@ -5206,13 +5206,13 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>308</v>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzo Licul\Desktop\Git\Self_Driving_RC_Car\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6113697-571F-4F1F-8134-3D8208BEFA08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1416">
   <si>
     <t>Capture image</t>
   </si>
@@ -4262,16 +4268,13 @@
   </si>
   <si>
     <t>2018-05-22 19:07:46.641092</t>
-  </si>
-  <si>
-    <t>2018-05-22 19:07:46.686939</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4308,6 +4311,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4354,7 +4365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4386,9 +4397,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4420,6 +4449,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4595,14 +4642,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H706"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H705"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="L709" sqref="L709"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>109</v>
       </c>
@@ -4654,7 +4712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4680,7 +4738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4706,7 +4764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4732,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -4758,7 +4816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -4784,7 +4842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -4810,7 +4868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -4836,7 +4894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -4862,7 +4920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -4888,7 +4946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -4914,7 +4972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -4940,7 +4998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18</v>
       </c>
@@ -4966,7 +5024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -4992,7 +5050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -5018,7 +5076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -5044,7 +5102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5070,7 +5128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5096,7 +5154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5122,7 +5180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -5148,7 +5206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -5174,7 +5232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -5200,7 +5258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -5226,7 +5284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -5252,7 +5310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -5278,7 +5336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -5304,7 +5362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -5330,7 +5388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -5356,7 +5414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
@@ -5382,7 +5440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>17</v>
       </c>
@@ -5408,7 +5466,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
@@ -5434,7 +5492,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>17</v>
       </c>
@@ -5460,7 +5518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>18</v>
       </c>
@@ -5486,7 +5544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
@@ -5512,7 +5570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
@@ -5538,7 +5596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17</v>
       </c>
@@ -5564,7 +5622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>17</v>
       </c>
@@ -5590,7 +5648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -5616,7 +5674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -5642,7 +5700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
@@ -5668,7 +5726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -5694,7 +5752,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>17</v>
       </c>
@@ -5720,7 +5778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -5746,7 +5804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
@@ -5772,7 +5830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
@@ -5798,7 +5856,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>17</v>
       </c>
@@ -5824,7 +5882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -5850,7 +5908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>
@@ -5876,7 +5934,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18</v>
       </c>
@@ -5902,7 +5960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -5928,7 +5986,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17</v>
       </c>
@@ -5954,7 +6012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
@@ -5980,7 +6038,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>17</v>
       </c>
@@ -6006,7 +6064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17</v>
       </c>
@@ -6032,7 +6090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>17</v>
       </c>
@@ -6058,7 +6116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>18</v>
       </c>
@@ -6084,7 +6142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
@@ -6110,7 +6168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
@@ -6136,7 +6194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
@@ -6162,7 +6220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
@@ -6188,7 +6246,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>18</v>
       </c>
@@ -6214,7 +6272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17</v>
       </c>
@@ -6240,7 +6298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>17</v>
       </c>
@@ -6266,7 +6324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17</v>
       </c>
@@ -6292,7 +6350,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>17</v>
       </c>
@@ -6318,7 +6376,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
@@ -6344,7 +6402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>18</v>
       </c>
@@ -6370,7 +6428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -6396,7 +6454,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -6422,7 +6480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>17</v>
       </c>
@@ -6448,7 +6506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
@@ -6474,7 +6532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
@@ -6500,7 +6558,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>17</v>
       </c>
@@ -6526,7 +6584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>17</v>
       </c>
@@ -6552,7 +6610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -6578,7 +6636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>17</v>
       </c>
@@ -6604,7 +6662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
@@ -6630,7 +6688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>17</v>
       </c>
@@ -6656,7 +6714,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>17</v>
       </c>
@@ -6682,7 +6740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>17</v>
       </c>
@@ -6708,7 +6766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17</v>
       </c>
@@ -6734,7 +6792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17</v>
       </c>
@@ -6760,7 +6818,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>18</v>
       </c>
@@ -6786,7 +6844,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17</v>
       </c>
@@ -6812,7 +6870,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>17</v>
       </c>
@@ -6838,7 +6896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>17</v>
       </c>
@@ -6864,7 +6922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>17</v>
       </c>
@@ -6890,7 +6948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -6916,7 +6974,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -6942,7 +7000,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>17</v>
       </c>
@@ -6968,7 +7026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
@@ -6994,7 +7052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>17</v>
       </c>
@@ -7020,7 +7078,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>17</v>
       </c>
@@ -7046,7 +7104,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -7072,7 +7130,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>17</v>
       </c>
@@ -7098,7 +7156,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>17</v>
       </c>
@@ -7124,7 +7182,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>17</v>
       </c>
@@ -7150,7 +7208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>17</v>
       </c>
@@ -7176,7 +7234,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>17</v>
       </c>
@@ -7202,7 +7260,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>17</v>
       </c>
@@ -7228,7 +7286,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>17</v>
       </c>
@@ -7254,7 +7312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>17</v>
       </c>
@@ -7280,7 +7338,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>17</v>
       </c>
@@ -7306,7 +7364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>17</v>
       </c>
@@ -7332,7 +7390,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>17</v>
       </c>
@@ -7358,7 +7416,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>17</v>
       </c>
@@ -7384,7 +7442,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -7410,7 +7468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>17</v>
       </c>
@@ -7436,7 +7494,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>17</v>
       </c>
@@ -7462,7 +7520,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>17</v>
       </c>
@@ -7488,7 +7546,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>17</v>
       </c>
@@ -7514,7 +7572,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>17</v>
       </c>
@@ -7540,7 +7598,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>17</v>
       </c>
@@ -7566,7 +7624,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>17</v>
       </c>
@@ -7592,7 +7650,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>17</v>
       </c>
@@ -7618,7 +7676,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>17</v>
       </c>
@@ -7644,7 +7702,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>18</v>
       </c>
@@ -7670,7 +7728,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>17</v>
       </c>
@@ -7696,7 +7754,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>17</v>
       </c>
@@ -7722,7 +7780,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>17</v>
       </c>
@@ -7748,7 +7806,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>17</v>
       </c>
@@ -7774,7 +7832,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>17</v>
       </c>
@@ -7800,7 +7858,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>17</v>
       </c>
@@ -7826,7 +7884,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>17</v>
       </c>
@@ -7852,7 +7910,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>17</v>
       </c>
@@ -7878,7 +7936,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17</v>
       </c>
@@ -7904,7 +7962,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>17</v>
       </c>
@@ -7930,7 +7988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>17</v>
       </c>
@@ -7956,7 +8014,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>17</v>
       </c>
@@ -7982,7 +8040,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>17</v>
       </c>
@@ -8008,7 +8066,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>17</v>
       </c>
@@ -8034,7 +8092,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>18</v>
       </c>
@@ -8060,7 +8118,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>17</v>
       </c>
@@ -8086,7 +8144,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>17</v>
       </c>
@@ -8112,7 +8170,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>17</v>
       </c>
@@ -8138,7 +8196,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>17</v>
       </c>
@@ -8164,7 +8222,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>18</v>
       </c>
@@ -8190,7 +8248,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>17</v>
       </c>
@@ -8216,7 +8274,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
@@ -8242,7 +8300,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>17</v>
       </c>
@@ -8268,7 +8326,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>17</v>
       </c>
@@ -8294,7 +8352,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>17</v>
       </c>
@@ -8320,7 +8378,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>17</v>
       </c>
@@ -8346,7 +8404,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>17</v>
       </c>
@@ -8372,7 +8430,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>18</v>
       </c>
@@ -8398,7 +8456,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>17</v>
       </c>
@@ -8424,7 +8482,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>17</v>
       </c>
@@ -8450,7 +8508,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>17</v>
       </c>
@@ -8476,7 +8534,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>17</v>
       </c>
@@ -8502,7 +8560,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>17</v>
       </c>
@@ -8528,7 +8586,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>17</v>
       </c>
@@ -8554,7 +8612,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>17</v>
       </c>
@@ -8580,7 +8638,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>17</v>
       </c>
@@ -8606,7 +8664,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>18</v>
       </c>
@@ -8632,7 +8690,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>17</v>
       </c>
@@ -8658,7 +8716,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>18</v>
       </c>
@@ -8684,7 +8742,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
@@ -8710,7 +8768,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>17</v>
       </c>
@@ -8736,7 +8794,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>17</v>
       </c>
@@ -8762,7 +8820,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>17</v>
       </c>
@@ -8788,7 +8846,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -8814,7 +8872,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -8840,7 +8898,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>17</v>
       </c>
@@ -8866,7 +8924,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>17</v>
       </c>
@@ -8892,7 +8950,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>17</v>
       </c>
@@ -8918,7 +8976,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17</v>
       </c>
@@ -8944,7 +9002,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>17</v>
       </c>
@@ -8970,7 +9028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>17</v>
       </c>
@@ -8996,7 +9054,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>17</v>
       </c>
@@ -9022,7 +9080,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>17</v>
       </c>
@@ -9048,7 +9106,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>17</v>
       </c>
@@ -9074,7 +9132,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>17</v>
       </c>
@@ -9100,7 +9158,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>17</v>
       </c>
@@ -9126,7 +9184,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>18</v>
       </c>
@@ -9152,7 +9210,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>17</v>
       </c>
@@ -9178,7 +9236,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>17</v>
       </c>
@@ -9204,7 +9262,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>18</v>
       </c>
@@ -9230,7 +9288,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>17</v>
       </c>
@@ -9256,7 +9314,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17</v>
       </c>
@@ -9282,7 +9340,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>17</v>
       </c>
@@ -9308,7 +9366,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>17</v>
       </c>
@@ -9334,7 +9392,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>18</v>
       </c>
@@ -9360,7 +9418,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>17</v>
       </c>
@@ -9386,7 +9444,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>18</v>
       </c>
@@ -9412,7 +9470,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -9438,7 +9496,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>17</v>
       </c>
@@ -9464,7 +9522,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>17</v>
       </c>
@@ -9490,7 +9548,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>17</v>
       </c>
@@ -9516,7 +9574,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>17</v>
       </c>
@@ -9542,7 +9600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>17</v>
       </c>
@@ -9568,7 +9626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>17</v>
       </c>
@@ -9594,7 +9652,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>17</v>
       </c>
@@ -9620,7 +9678,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>17</v>
       </c>
@@ -9646,7 +9704,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>17</v>
       </c>
@@ -9672,7 +9730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>17</v>
       </c>
@@ -9698,7 +9756,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>17</v>
       </c>
@@ -9724,7 +9782,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>17</v>
       </c>
@@ -9750,7 +9808,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>17</v>
       </c>
@@ -9776,7 +9834,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>17</v>
       </c>
@@ -9802,7 +9860,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>17</v>
       </c>
@@ -9828,7 +9886,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>17</v>
       </c>
@@ -9854,7 +9912,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>17</v>
       </c>
@@ -9880,7 +9938,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>18</v>
       </c>
@@ -9906,7 +9964,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>17</v>
       </c>
@@ -9932,7 +9990,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>17</v>
       </c>
@@ -9958,7 +10016,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
@@ -9984,7 +10042,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>17</v>
       </c>
@@ -10010,7 +10068,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>18</v>
       </c>
@@ -10036,7 +10094,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>17</v>
       </c>
@@ -10062,7 +10120,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>17</v>
       </c>
@@ -10088,7 +10146,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>17</v>
       </c>
@@ -10114,7 +10172,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>17</v>
       </c>
@@ -10140,7 +10198,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>17</v>
       </c>
@@ -10166,7 +10224,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>17</v>
       </c>
@@ -10192,7 +10250,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>17</v>
       </c>
@@ -10218,7 +10276,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>17</v>
       </c>
@@ -10244,7 +10302,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>17</v>
       </c>
@@ -10270,7 +10328,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>17</v>
       </c>
@@ -10296,7 +10354,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>18</v>
       </c>
@@ -10322,7 +10380,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>17</v>
       </c>
@@ -10348,7 +10406,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>17</v>
       </c>
@@ -10374,7 +10432,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>17</v>
       </c>
@@ -10400,7 +10458,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>17</v>
       </c>
@@ -10426,7 +10484,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>17</v>
       </c>
@@ -10452,7 +10510,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>18</v>
       </c>
@@ -10478,7 +10536,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>17</v>
       </c>
@@ -10504,7 +10562,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17</v>
       </c>
@@ -10530,7 +10588,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>17</v>
       </c>
@@ -10556,7 +10614,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>17</v>
       </c>
@@ -10582,7 +10640,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>18</v>
       </c>
@@ -10608,7 +10666,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>17</v>
       </c>
@@ -10634,7 +10692,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>17</v>
       </c>
@@ -10660,7 +10718,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>17</v>
       </c>
@@ -10686,7 +10744,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>18</v>
       </c>
@@ -10712,7 +10770,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>17</v>
       </c>
@@ -10738,7 +10796,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>17</v>
       </c>
@@ -10764,7 +10822,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>17</v>
       </c>
@@ -10790,7 +10848,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>17</v>
       </c>
@@ -10816,7 +10874,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>17</v>
       </c>
@@ -10842,7 +10900,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>17</v>
       </c>
@@ -10868,7 +10926,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>17</v>
       </c>
@@ -10894,7 +10952,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>17</v>
       </c>
@@ -10920,7 +10978,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>17</v>
       </c>
@@ -10946,7 +11004,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>17</v>
       </c>
@@ -10972,7 +11030,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>17</v>
       </c>
@@ -10998,7 +11056,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>17</v>
       </c>
@@ -11024,7 +11082,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>17</v>
       </c>
@@ -11050,7 +11108,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>17</v>
       </c>
@@ -11076,7 +11134,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>18</v>
       </c>
@@ -11102,7 +11160,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>18</v>
       </c>
@@ -11128,7 +11186,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>17</v>
       </c>
@@ -11154,7 +11212,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>17</v>
       </c>
@@ -11180,7 +11238,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>17</v>
       </c>
@@ -11206,7 +11264,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>17</v>
       </c>
@@ -11232,7 +11290,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>17</v>
       </c>
@@ -11258,7 +11316,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>17</v>
       </c>
@@ -11284,7 +11342,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>17</v>
       </c>
@@ -11310,7 +11368,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>17</v>
       </c>
@@ -11336,7 +11394,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>17</v>
       </c>
@@ -11362,7 +11420,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>17</v>
       </c>
@@ -11388,7 +11446,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>18</v>
       </c>
@@ -11414,7 +11472,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>17</v>
       </c>
@@ -11440,7 +11498,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>17</v>
       </c>
@@ -11466,7 +11524,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>17</v>
       </c>
@@ -11492,7 +11550,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>17</v>
       </c>
@@ -11518,7 +11576,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -11544,7 +11602,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17</v>
       </c>
@@ -11570,7 +11628,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17</v>
       </c>
@@ -11596,7 +11654,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17</v>
       </c>
@@ -11622,7 +11680,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17</v>
       </c>
@@ -11648,7 +11706,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17</v>
       </c>
@@ -11674,7 +11732,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17</v>
       </c>
@@ -11700,7 +11758,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17</v>
       </c>
@@ -11726,7 +11784,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17</v>
       </c>
@@ -11752,7 +11810,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17</v>
       </c>
@@ -11778,7 +11836,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>17</v>
       </c>
@@ -11804,7 +11862,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>17</v>
       </c>
@@ -11830,7 +11888,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>17</v>
       </c>
@@ -11856,7 +11914,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>17</v>
       </c>
@@ -11882,7 +11940,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>17</v>
       </c>
@@ -11908,7 +11966,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>17</v>
       </c>
@@ -11934,7 +11992,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17</v>
       </c>
@@ -11960,7 +12018,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>17</v>
       </c>
@@ -11986,7 +12044,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>17</v>
       </c>
@@ -12012,7 +12070,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>17</v>
       </c>
@@ -12038,7 +12096,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>17</v>
       </c>
@@ -12064,7 +12122,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>17</v>
       </c>
@@ -12090,7 +12148,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16</v>
       </c>
@@ -12116,7 +12174,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>17</v>
       </c>
@@ -12142,7 +12200,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>17</v>
       </c>
@@ -12168,7 +12226,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17</v>
       </c>
@@ -12194,7 +12252,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>17</v>
       </c>
@@ -12220,7 +12278,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>17</v>
       </c>
@@ -12246,7 +12304,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>17</v>
       </c>
@@ -12272,7 +12330,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>17</v>
       </c>
@@ -12298,7 +12356,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>17</v>
       </c>
@@ -12324,7 +12382,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>18</v>
       </c>
@@ -12350,7 +12408,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>17</v>
       </c>
@@ -12376,7 +12434,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>17</v>
       </c>
@@ -12402,7 +12460,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>17</v>
       </c>
@@ -12428,7 +12486,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>17</v>
       </c>
@@ -12454,7 +12512,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>17</v>
       </c>
@@ -12480,7 +12538,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>18</v>
       </c>
@@ -12506,7 +12564,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>17</v>
       </c>
@@ -12532,7 +12590,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>18</v>
       </c>
@@ -12558,7 +12616,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>18</v>
       </c>
@@ -12584,7 +12642,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>17</v>
       </c>
@@ -12610,7 +12668,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>17</v>
       </c>
@@ -12636,7 +12694,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>18</v>
       </c>
@@ -12662,7 +12720,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>17</v>
       </c>
@@ -12688,7 +12746,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>18</v>
       </c>
@@ -12714,7 +12772,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>17</v>
       </c>
@@ -12740,7 +12798,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17</v>
       </c>
@@ -12766,7 +12824,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>17</v>
       </c>
@@ -12792,7 +12850,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>17</v>
       </c>
@@ -12818,7 +12876,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>17</v>
       </c>
@@ -12844,7 +12902,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>17</v>
       </c>
@@ -12870,7 +12928,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>17</v>
       </c>
@@ -12896,7 +12954,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>17</v>
       </c>
@@ -12922,7 +12980,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>17</v>
       </c>
@@ -12948,7 +13006,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>17</v>
       </c>
@@ -12974,7 +13032,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17</v>
       </c>
@@ -13000,7 +13058,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>17</v>
       </c>
@@ -13026,7 +13084,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>17</v>
       </c>
@@ -13052,7 +13110,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>18</v>
       </c>
@@ -13078,7 +13136,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>17</v>
       </c>
@@ -13104,7 +13162,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>17</v>
       </c>
@@ -13130,7 +13188,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>18</v>
       </c>
@@ -13156,7 +13214,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>17</v>
       </c>
@@ -13182,7 +13240,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>17</v>
       </c>
@@ -13208,7 +13266,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>18</v>
       </c>
@@ -13234,7 +13292,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>18</v>
       </c>
@@ -13260,7 +13318,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>18</v>
       </c>
@@ -13286,7 +13344,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>17</v>
       </c>
@@ -13312,7 +13370,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>17</v>
       </c>
@@ -13338,7 +13396,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18</v>
       </c>
@@ -13364,7 +13422,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>18</v>
       </c>
@@ -13390,7 +13448,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>18</v>
       </c>
@@ -13416,7 +13474,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>17</v>
       </c>
@@ -13442,7 +13500,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>17</v>
       </c>
@@ -13468,7 +13526,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>18</v>
       </c>
@@ -13494,7 +13552,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>17</v>
       </c>
@@ -13520,7 +13578,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>17</v>
       </c>
@@ -13546,7 +13604,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>17</v>
       </c>
@@ -13572,7 +13630,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>18</v>
       </c>
@@ -13598,7 +13656,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>17</v>
       </c>
@@ -13624,7 +13682,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>17</v>
       </c>
@@ -13650,7 +13708,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>18</v>
       </c>
@@ -13676,7 +13734,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>17</v>
       </c>
@@ -13702,7 +13760,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>17</v>
       </c>
@@ -13728,7 +13786,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>17</v>
       </c>
@@ -13754,7 +13812,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>17</v>
       </c>
@@ -13780,7 +13838,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>17</v>
       </c>
@@ -13806,7 +13864,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>17</v>
       </c>
@@ -13832,7 +13890,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>17</v>
       </c>
@@ -13858,7 +13916,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>18</v>
       </c>
@@ -13884,7 +13942,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>17</v>
       </c>
@@ -13910,7 +13968,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>17</v>
       </c>
@@ -13936,7 +13994,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>18</v>
       </c>
@@ -13962,7 +14020,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>17</v>
       </c>
@@ -13988,7 +14046,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>18</v>
       </c>
@@ -14014,7 +14072,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>17</v>
       </c>
@@ -14040,7 +14098,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>18</v>
       </c>
@@ -14066,7 +14124,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>18</v>
       </c>
@@ -14092,7 +14150,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>18</v>
       </c>
@@ -14118,7 +14176,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>17</v>
       </c>
@@ -14144,7 +14202,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>17</v>
       </c>
@@ -14170,7 +14228,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>17</v>
       </c>
@@ -14196,7 +14254,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>18</v>
       </c>
@@ -14222,7 +14280,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>18</v>
       </c>
@@ -14248,7 +14306,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>17</v>
       </c>
@@ -14274,7 +14332,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>17</v>
       </c>
@@ -14300,7 +14358,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>17</v>
       </c>
@@ -14326,7 +14384,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>18</v>
       </c>
@@ -14352,7 +14410,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>17</v>
       </c>
@@ -14378,7 +14436,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>17</v>
       </c>
@@ -14404,7 +14462,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>17</v>
       </c>
@@ -14430,7 +14488,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>17</v>
       </c>
@@ -14456,7 +14514,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>17</v>
       </c>
@@ -14482,7 +14540,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>17</v>
       </c>
@@ -14508,7 +14566,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>17</v>
       </c>
@@ -14534,7 +14592,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>17</v>
       </c>
@@ -14560,7 +14618,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>17</v>
       </c>
@@ -14586,7 +14644,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>17</v>
       </c>
@@ -14612,7 +14670,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>17</v>
       </c>
@@ -14638,7 +14696,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>17</v>
       </c>
@@ -14664,7 +14722,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>17</v>
       </c>
@@ -14690,7 +14748,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>17</v>
       </c>
@@ -14716,7 +14774,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>17</v>
       </c>
@@ -14742,7 +14800,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>17</v>
       </c>
@@ -14768,7 +14826,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17</v>
       </c>
@@ -14794,7 +14852,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17</v>
       </c>
@@ -14820,7 +14878,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17</v>
       </c>
@@ -14846,7 +14904,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17</v>
       </c>
@@ -14872,7 +14930,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>18</v>
       </c>
@@ -14898,7 +14956,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>17</v>
       </c>
@@ -14924,7 +14982,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>17</v>
       </c>
@@ -14950,7 +15008,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>17</v>
       </c>
@@ -14976,7 +15034,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>17</v>
       </c>
@@ -15002,7 +15060,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>17</v>
       </c>
@@ -15028,7 +15086,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>18</v>
       </c>
@@ -15054,7 +15112,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>17</v>
       </c>
@@ -15080,7 +15138,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>17</v>
       </c>
@@ -15106,7 +15164,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>18</v>
       </c>
@@ -15132,7 +15190,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>17</v>
       </c>
@@ -15158,7 +15216,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>17</v>
       </c>
@@ -15184,7 +15242,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>18</v>
       </c>
@@ -15210,7 +15268,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>17</v>
       </c>
@@ -15236,7 +15294,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>17</v>
       </c>
@@ -15262,7 +15320,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>17</v>
       </c>
@@ -15288,7 +15346,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>17</v>
       </c>
@@ -15314,7 +15372,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>17</v>
       </c>
@@ -15340,7 +15398,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>17</v>
       </c>
@@ -15366,7 +15424,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>17</v>
       </c>
@@ -15392,7 +15450,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>17</v>
       </c>
@@ -15418,7 +15476,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>17</v>
       </c>
@@ -15444,7 +15502,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>17</v>
       </c>
@@ -15470,7 +15528,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>18</v>
       </c>
@@ -15496,7 +15554,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>18</v>
       </c>
@@ -15522,7 +15580,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>17</v>
       </c>
@@ -15548,7 +15606,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>18</v>
       </c>
@@ -15574,7 +15632,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>18</v>
       </c>
@@ -15600,7 +15658,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>18</v>
       </c>
@@ -15626,7 +15684,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>17</v>
       </c>
@@ -15652,7 +15710,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>18</v>
       </c>
@@ -15678,7 +15736,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>17</v>
       </c>
@@ -15704,7 +15762,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>17</v>
       </c>
@@ -15730,7 +15788,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>17</v>
       </c>
@@ -15756,7 +15814,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>17</v>
       </c>
@@ -15782,7 +15840,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>17</v>
       </c>
@@ -15808,7 +15866,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>17</v>
       </c>
@@ -15834,7 +15892,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>17</v>
       </c>
@@ -15860,7 +15918,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>17</v>
       </c>
@@ -15886,7 +15944,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>17</v>
       </c>
@@ -15912,7 +15970,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>17</v>
       </c>
@@ -15938,7 +15996,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>17</v>
       </c>
@@ -15964,7 +16022,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>17</v>
       </c>
@@ -15990,7 +16048,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>17</v>
       </c>
@@ -16016,7 +16074,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>18</v>
       </c>
@@ -16042,7 +16100,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>17</v>
       </c>
@@ -16068,7 +16126,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>18</v>
       </c>
@@ -16094,7 +16152,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>17</v>
       </c>
@@ -16120,7 +16178,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>17</v>
       </c>
@@ -16146,7 +16204,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>17</v>
       </c>
@@ -16172,7 +16230,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>18</v>
       </c>
@@ -16198,7 +16256,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>17</v>
       </c>
@@ -16224,7 +16282,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>18</v>
       </c>
@@ -16250,7 +16308,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>17</v>
       </c>
@@ -16276,7 +16334,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>17</v>
       </c>
@@ -16302,7 +16360,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>17</v>
       </c>
@@ -16328,7 +16386,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>17</v>
       </c>
@@ -16354,7 +16412,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>17</v>
       </c>
@@ -16380,7 +16438,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>17</v>
       </c>
@@ -16406,7 +16464,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>17</v>
       </c>
@@ -16432,7 +16490,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>18</v>
       </c>
@@ -16458,7 +16516,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>17</v>
       </c>
@@ -16484,7 +16542,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>17</v>
       </c>
@@ -16510,7 +16568,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>17</v>
       </c>
@@ -16536,7 +16594,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>17</v>
       </c>
@@ -16562,7 +16620,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>17</v>
       </c>
@@ -16588,7 +16646,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>17</v>
       </c>
@@ -16614,7 +16672,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>17</v>
       </c>
@@ -16640,7 +16698,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>17</v>
       </c>
@@ -16666,7 +16724,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>17</v>
       </c>
@@ -16692,7 +16750,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>18</v>
       </c>
@@ -16718,7 +16776,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>17</v>
       </c>
@@ -16744,7 +16802,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>17</v>
       </c>
@@ -16770,7 +16828,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>17</v>
       </c>
@@ -16796,7 +16854,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>17</v>
       </c>
@@ -16822,7 +16880,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>17</v>
       </c>
@@ -16848,7 +16906,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>17</v>
       </c>
@@ -16874,7 +16932,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>17</v>
       </c>
@@ -16900,7 +16958,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>17</v>
       </c>
@@ -16926,7 +16984,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>17</v>
       </c>
@@ -16952,7 +17010,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>18</v>
       </c>
@@ -16978,7 +17036,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>17</v>
       </c>
@@ -17004,7 +17062,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>17</v>
       </c>
@@ -17030,7 +17088,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>18</v>
       </c>
@@ -17056,7 +17114,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>18</v>
       </c>
@@ -17082,7 +17140,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>18</v>
       </c>
@@ -17108,7 +17166,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>18</v>
       </c>
@@ -17134,7 +17192,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>17</v>
       </c>
@@ -17160,7 +17218,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>17</v>
       </c>
@@ -17186,7 +17244,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>17</v>
       </c>
@@ -17212,7 +17270,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>17</v>
       </c>
@@ -17238,7 +17296,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>17</v>
       </c>
@@ -17264,7 +17322,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>17</v>
       </c>
@@ -17290,7 +17348,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>17</v>
       </c>
@@ -17316,7 +17374,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>17</v>
       </c>
@@ -17342,7 +17400,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>17</v>
       </c>
@@ -17368,7 +17426,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>17</v>
       </c>
@@ -17394,7 +17452,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>17</v>
       </c>
@@ -17420,7 +17478,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>17</v>
       </c>
@@ -17446,7 +17504,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>17</v>
       </c>
@@ -17472,7 +17530,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>17</v>
       </c>
@@ -17498,7 +17556,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>17</v>
       </c>
@@ -17524,7 +17582,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>18</v>
       </c>
@@ -17550,7 +17608,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>18</v>
       </c>
@@ -17576,7 +17634,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>18</v>
       </c>
@@ -17602,7 +17660,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>17</v>
       </c>
@@ -17628,7 +17686,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>17</v>
       </c>
@@ -17654,7 +17712,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>17</v>
       </c>
@@ -17680,7 +17738,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>17</v>
       </c>
@@ -17706,7 +17764,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>18</v>
       </c>
@@ -17732,7 +17790,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>17</v>
       </c>
@@ -17758,7 +17816,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>17</v>
       </c>
@@ -17784,7 +17842,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>17</v>
       </c>
@@ -17810,7 +17868,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>17</v>
       </c>
@@ -17836,7 +17894,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>18</v>
       </c>
@@ -17862,7 +17920,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>18</v>
       </c>
@@ -17888,7 +17946,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>17</v>
       </c>
@@ -17914,7 +17972,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>18</v>
       </c>
@@ -17940,7 +17998,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>17</v>
       </c>
@@ -17966,7 +18024,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>17</v>
       </c>
@@ -17992,7 +18050,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>17</v>
       </c>
@@ -18018,7 +18076,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>17</v>
       </c>
@@ -18044,7 +18102,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>17</v>
       </c>
@@ -18070,7 +18128,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>18</v>
       </c>
@@ -18096,7 +18154,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>17</v>
       </c>
@@ -18122,7 +18180,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>17</v>
       </c>
@@ -18148,7 +18206,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>17</v>
       </c>
@@ -18174,7 +18232,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>17</v>
       </c>
@@ -18200,7 +18258,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>18</v>
       </c>
@@ -18226,7 +18284,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>17</v>
       </c>
@@ -18252,7 +18310,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>17</v>
       </c>
@@ -18278,7 +18336,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>17</v>
       </c>
@@ -18304,7 +18362,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>17</v>
       </c>
@@ -18330,7 +18388,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>18</v>
       </c>
@@ -18356,7 +18414,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>17</v>
       </c>
@@ -18382,7 +18440,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>17</v>
       </c>
@@ -18408,7 +18466,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>17</v>
       </c>
@@ -18434,7 +18492,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>18</v>
       </c>
@@ -18460,7 +18518,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>17</v>
       </c>
@@ -18486,7 +18544,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>17</v>
       </c>
@@ -18512,7 +18570,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>17</v>
       </c>
@@ -18538,7 +18596,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>17</v>
       </c>
@@ -18564,7 +18622,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>17</v>
       </c>
@@ -18590,7 +18648,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>18</v>
       </c>
@@ -18616,7 +18674,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>17</v>
       </c>
@@ -18642,7 +18700,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>17</v>
       </c>
@@ -18668,7 +18726,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>17</v>
       </c>
@@ -18694,7 +18752,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>17</v>
       </c>
@@ -18720,7 +18778,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>17</v>
       </c>
@@ -18746,7 +18804,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>18</v>
       </c>
@@ -18772,7 +18830,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>17</v>
       </c>
@@ -18798,7 +18856,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>17</v>
       </c>
@@ -18824,7 +18882,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>17</v>
       </c>
@@ -18850,7 +18908,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>17</v>
       </c>
@@ -18876,7 +18934,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>17</v>
       </c>
@@ -18902,7 +18960,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>17</v>
       </c>
@@ -18928,7 +18986,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>17</v>
       </c>
@@ -18954,7 +19012,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>18</v>
       </c>
@@ -18980,7 +19038,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>17</v>
       </c>
@@ -19006,7 +19064,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>17</v>
       </c>
@@ -19032,7 +19090,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>17</v>
       </c>
@@ -19058,7 +19116,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>18</v>
       </c>
@@ -19084,7 +19142,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>17</v>
       </c>
@@ -19110,7 +19168,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>18</v>
       </c>
@@ -19136,7 +19194,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>17</v>
       </c>
@@ -19162,7 +19220,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>18</v>
       </c>
@@ -19188,7 +19246,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>17</v>
       </c>
@@ -19214,7 +19272,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>17</v>
       </c>
@@ -19240,7 +19298,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>17</v>
       </c>
@@ -19266,7 +19324,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>17</v>
       </c>
@@ -19292,7 +19350,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>17</v>
       </c>
@@ -19318,7 +19376,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>18</v>
       </c>
@@ -19344,7 +19402,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>17</v>
       </c>
@@ -19370,7 +19428,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>17</v>
       </c>
@@ -19396,7 +19454,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>17</v>
       </c>
@@ -19422,7 +19480,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>17</v>
       </c>
@@ -19448,7 +19506,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>17</v>
       </c>
@@ -19474,7 +19532,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>17</v>
       </c>
@@ -19500,7 +19558,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>18</v>
       </c>
@@ -19526,7 +19584,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>17</v>
       </c>
@@ -19552,7 +19610,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>17</v>
       </c>
@@ -19578,7 +19636,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>17</v>
       </c>
@@ -19604,7 +19662,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>17</v>
       </c>
@@ -19630,7 +19688,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>17</v>
       </c>
@@ -19656,7 +19714,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>17</v>
       </c>
@@ -19682,7 +19740,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>18</v>
       </c>
@@ -19708,7 +19766,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>18</v>
       </c>
@@ -19734,7 +19792,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>17</v>
       </c>
@@ -19760,7 +19818,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>17</v>
       </c>
@@ -19786,7 +19844,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>17</v>
       </c>
@@ -19812,7 +19870,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>18</v>
       </c>
@@ -19838,7 +19896,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>17</v>
       </c>
@@ -19864,7 +19922,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>17</v>
       </c>
@@ -19890,7 +19948,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>17</v>
       </c>
@@ -19916,7 +19974,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>17</v>
       </c>
@@ -19942,7 +20000,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>18</v>
       </c>
@@ -19968,7 +20026,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>18</v>
       </c>
@@ -19994,7 +20052,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>17</v>
       </c>
@@ -20020,7 +20078,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>17</v>
       </c>
@@ -20046,7 +20104,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>17</v>
       </c>
@@ -20072,7 +20130,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>17</v>
       </c>
@@ -20098,7 +20156,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>17</v>
       </c>
@@ -20124,7 +20182,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>17</v>
       </c>
@@ -20150,7 +20208,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>17</v>
       </c>
@@ -20176,7 +20234,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>18</v>
       </c>
@@ -20202,7 +20260,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>17</v>
       </c>
@@ -20228,7 +20286,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>17</v>
       </c>
@@ -20254,7 +20312,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>17</v>
       </c>
@@ -20280,7 +20338,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>17</v>
       </c>
@@ -20306,7 +20364,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>18</v>
       </c>
@@ -20332,7 +20390,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>17</v>
       </c>
@@ -20358,7 +20416,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>17</v>
       </c>
@@ -20384,7 +20442,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>17</v>
       </c>
@@ -20410,7 +20468,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>18</v>
       </c>
@@ -20436,7 +20494,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>17</v>
       </c>
@@ -20462,7 +20520,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>17</v>
       </c>
@@ -20488,7 +20546,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>17</v>
       </c>
@@ -20514,7 +20572,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>18</v>
       </c>
@@ -20540,7 +20598,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>17</v>
       </c>
@@ -20566,7 +20624,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>17</v>
       </c>
@@ -20592,7 +20650,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>17</v>
       </c>
@@ -20618,7 +20676,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>17</v>
       </c>
@@ -20644,7 +20702,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>17</v>
       </c>
@@ -20670,7 +20728,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>18</v>
       </c>
@@ -20696,7 +20754,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>18</v>
       </c>
@@ -20722,7 +20780,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>17</v>
       </c>
@@ -20748,7 +20806,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>18</v>
       </c>
@@ -20774,7 +20832,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>17</v>
       </c>
@@ -20800,7 +20858,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>17</v>
       </c>
@@ -20826,7 +20884,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>17</v>
       </c>
@@ -20852,7 +20910,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>17</v>
       </c>
@@ -20878,7 +20936,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>17</v>
       </c>
@@ -20904,7 +20962,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>17</v>
       </c>
@@ -20930,7 +20988,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>17</v>
       </c>
@@ -20956,7 +21014,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>17</v>
       </c>
@@ -20982,7 +21040,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>17</v>
       </c>
@@ -21008,7 +21066,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>17</v>
       </c>
@@ -21034,7 +21092,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>17</v>
       </c>
@@ -21060,7 +21118,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>17</v>
       </c>
@@ -21086,7 +21144,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>17</v>
       </c>
@@ -21112,7 +21170,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>17</v>
       </c>
@@ -21138,7 +21196,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>17</v>
       </c>
@@ -21164,7 +21222,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>17</v>
       </c>
@@ -21190,7 +21248,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>17</v>
       </c>
@@ -21216,7 +21274,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>17</v>
       </c>
@@ -21242,7 +21300,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>17</v>
       </c>
@@ -21268,7 +21326,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>17</v>
       </c>
@@ -21294,7 +21352,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>17</v>
       </c>
@@ -21320,7 +21378,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>18</v>
       </c>
@@ -21346,7 +21404,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>17</v>
       </c>
@@ -21372,7 +21430,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>17</v>
       </c>
@@ -21398,7 +21456,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>17</v>
       </c>
@@ -21424,7 +21482,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>17</v>
       </c>
@@ -21450,7 +21508,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>17</v>
       </c>
@@ -21476,7 +21534,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>17</v>
       </c>
@@ -21502,7 +21560,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>17</v>
       </c>
@@ -21528,7 +21586,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>17</v>
       </c>
@@ -21554,7 +21612,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>17</v>
       </c>
@@ -21580,7 +21638,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>18</v>
       </c>
@@ -21606,7 +21664,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>17</v>
       </c>
@@ -21632,7 +21690,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>17</v>
       </c>
@@ -21658,7 +21716,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>17</v>
       </c>
@@ -21684,7 +21742,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>17</v>
       </c>
@@ -21710,7 +21768,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>18</v>
       </c>
@@ -21736,7 +21794,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>18</v>
       </c>
@@ -21762,7 +21820,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>17</v>
       </c>
@@ -21788,7 +21846,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>17</v>
       </c>
@@ -21814,7 +21872,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>17</v>
       </c>
@@ -21840,7 +21898,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>17</v>
       </c>
@@ -21866,7 +21924,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>17</v>
       </c>
@@ -21892,7 +21950,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>17</v>
       </c>
@@ -21918,7 +21976,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>17</v>
       </c>
@@ -21944,7 +22002,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>17</v>
       </c>
@@ -21970,7 +22028,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>17</v>
       </c>
@@ -21996,7 +22054,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>18</v>
       </c>
@@ -22022,7 +22080,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>17</v>
       </c>
@@ -22048,7 +22106,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>17</v>
       </c>
@@ -22074,7 +22132,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>17</v>
       </c>
@@ -22100,7 +22158,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>17</v>
       </c>
@@ -22126,7 +22184,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>17</v>
       </c>
@@ -22152,7 +22210,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>17</v>
       </c>
@@ -22178,7 +22236,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>17</v>
       </c>
@@ -22204,7 +22262,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>18</v>
       </c>
@@ -22230,7 +22288,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>17</v>
       </c>
@@ -22256,7 +22314,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>17</v>
       </c>
@@ -22282,7 +22340,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>17</v>
       </c>
@@ -22308,7 +22366,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>18</v>
       </c>
@@ -22334,7 +22392,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>17</v>
       </c>
@@ -22360,7 +22418,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>17</v>
       </c>
@@ -22386,7 +22444,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>17</v>
       </c>
@@ -22412,7 +22470,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>18</v>
       </c>
@@ -22438,7 +22496,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>17</v>
       </c>
@@ -22464,7 +22522,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>18</v>
       </c>
@@ -22490,7 +22548,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>18</v>
       </c>
@@ -22516,7 +22574,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>18</v>
       </c>
@@ -22542,7 +22600,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>17</v>
       </c>
@@ -22568,7 +22626,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>18</v>
       </c>
@@ -22594,7 +22652,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>17</v>
       </c>
@@ -22620,7 +22678,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>17</v>
       </c>
@@ -22646,7 +22704,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>18</v>
       </c>
@@ -22672,7 +22730,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>17</v>
       </c>
@@ -22698,7 +22756,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>17</v>
       </c>
@@ -22724,7 +22782,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>17</v>
       </c>
@@ -22750,7 +22808,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>18</v>
       </c>
@@ -22776,7 +22834,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>17</v>
       </c>
@@ -22802,7 +22860,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>17</v>
       </c>
@@ -22828,7 +22886,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>17</v>
       </c>
@@ -22854,7 +22912,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>18</v>
       </c>
@@ -22880,7 +22938,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>17</v>
       </c>
@@ -22906,7 +22964,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>18</v>
       </c>
@@ -22930,20 +22988,6 @@
       </c>
       <c r="H705" t="s">
         <v>1415</v>
-      </c>
-    </row>
-    <row r="706" spans="1:8">
-      <c r="A706">
-        <v>18</v>
-      </c>
-      <c r="B706">
-        <v>0</v>
-      </c>
-      <c r="C706">
-        <v>0</v>
-      </c>
-      <c r="G706" t="s">
-        <v>1416</v>
       </c>
     </row>
   </sheetData>

--- a/Client_time.xlsx
+++ b/Client_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="180">
   <si>
     <t>Capture image</t>
   </si>
@@ -40,79 +40,520 @@
     <t>End time</t>
   </si>
   <si>
-    <t>2018-05-24 20:39:43.599809</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:46.933101</t>
-  </si>
-  <si>
-    <t>0:00:03.333292</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:46.954268</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.287530</t>
-  </si>
-  <si>
-    <t>0:00:00.333262</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.333443</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.666698</t>
-  </si>
-  <si>
-    <t>0:00:00.333255</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:47.684156</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:48.017412</t>
-  </si>
-  <si>
-    <t>0:00:00.333256</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:48.058800</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:48.392042</t>
-  </si>
-  <si>
-    <t>0:00:00.333242</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:48.409222</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.742675</t>
-  </si>
-  <si>
-    <t>0:00:01.333453</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:49.799072</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:50.132320</t>
-  </si>
-  <si>
-    <t>0:00:00.333248</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:50.149708</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:50.483141</t>
-  </si>
-  <si>
-    <t>0:00:00.333433</t>
-  </si>
-  <si>
-    <t>2018-05-24 20:39:50.525326</t>
+    <t>2018-05-24 20:52:29.841852</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.342405</t>
+  </si>
+  <si>
+    <t>0:00:03.500553</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.360095</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.860584</t>
+  </si>
+  <si>
+    <t>0:00:00.500489</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:33.901911</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.402479</t>
+  </si>
+  <si>
+    <t>0:00:00.500568</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.420300</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.920813</t>
+  </si>
+  <si>
+    <t>0:00:00.500513</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:34.972128</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.472710</t>
+  </si>
+  <si>
+    <t>0:00:00.500582</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.490919</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:35.991263</t>
+  </si>
+  <si>
+    <t>0:00:00.500344</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.040607</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.541060</t>
+  </si>
+  <si>
+    <t>0:00:00.500453</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:36.558354</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:37.058832</t>
+  </si>
+  <si>
+    <t>0:00:00.500478</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:37.110346</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:37.610792</t>
+  </si>
+  <si>
+    <t>0:00:00.500446</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:37.628268</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:39.129169</t>
+  </si>
+  <si>
+    <t>0:00:01.500901</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:39.177925</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:39.678386</t>
+  </si>
+  <si>
+    <t>0:00:00.500461</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:39.695135</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:41.196158</t>
+  </si>
+  <si>
+    <t>0:00:01.501023</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:41.243995</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:41.744549</t>
+  </si>
+  <si>
+    <t>0:00:00.500554</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:41.761840</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:43.262912</t>
+  </si>
+  <si>
+    <t>0:00:01.501072</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:43.311944</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:43.812487</t>
+  </si>
+  <si>
+    <t>0:00:00.500543</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:43.832436</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:45.333513</t>
+  </si>
+  <si>
+    <t>0:00:01.501077</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:45.377636</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:45.878144</t>
+  </si>
+  <si>
+    <t>0:00:00.500508</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:45.895522</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:47.396717</t>
+  </si>
+  <si>
+    <t>0:00:01.501195</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:47.444411</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:47.944930</t>
+  </si>
+  <si>
+    <t>0:00:00.500519</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:47.962065</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:49.463690</t>
+  </si>
+  <si>
+    <t>0:00:01.501625</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:49.511178</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.012010</t>
+  </si>
+  <si>
+    <t>0:00:00.500832</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.029074</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.529727</t>
+  </si>
+  <si>
+    <t>0:00:00.500653</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:50.580770</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.081444</t>
+  </si>
+  <si>
+    <t>0:00:00.500674</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.098708</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.599376</t>
+  </si>
+  <si>
+    <t>0:00:00.500668</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:51.650783</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.151545</t>
+  </si>
+  <si>
+    <t>0:00:00.500762</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.168438</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.669205</t>
+  </si>
+  <si>
+    <t>0:00:00.500767</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:52.720143</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.220954</t>
+  </si>
+  <si>
+    <t>0:00:00.500811</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.239149</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.740044</t>
+  </si>
+  <si>
+    <t>0:00:00.500895</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:53.790927</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.291814</t>
+  </si>
+  <si>
+    <t>0:00:00.500887</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.309742</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.810231</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:54.859414</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.359879</t>
+  </si>
+  <si>
+    <t>0:00:00.500465</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.377220</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.877761</t>
+  </si>
+  <si>
+    <t>0:00:00.500541</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:55.929128</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.429598</t>
+  </si>
+  <si>
+    <t>0:00:00.500470</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.446867</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.947356</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:56.998787</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.499222</t>
+  </si>
+  <si>
+    <t>0:00:00.500435</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:57.516515</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.016957</t>
+  </si>
+  <si>
+    <t>0:00:00.500442</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.068361</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.568815</t>
+  </si>
+  <si>
+    <t>0:00:00.500454</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:58.586199</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:59.086677</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:59.138182</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:59.638618</t>
+  </si>
+  <si>
+    <t>0:00:00.500436</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:52:59.656940</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:01.157777</t>
+  </si>
+  <si>
+    <t>0:00:01.500837</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:01.204926</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:01.705809</t>
+  </si>
+  <si>
+    <t>0:00:00.500883</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:01.724019</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:03.225326</t>
+  </si>
+  <si>
+    <t>0:00:01.501307</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:03.271725</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:03.772621</t>
+  </si>
+  <si>
+    <t>0:00:00.500896</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:03.790719</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:05.292066</t>
+  </si>
+  <si>
+    <t>0:00:01.501347</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:05.335322</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:05.836196</t>
+  </si>
+  <si>
+    <t>0:00:00.500874</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:05.852333</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:07.353782</t>
+  </si>
+  <si>
+    <t>0:00:01.501449</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:07.405359</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:07.906309</t>
+  </si>
+  <si>
+    <t>0:00:00.500950</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:07.924424</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:09.425930</t>
+  </si>
+  <si>
+    <t>0:00:01.501506</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:09.472186</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:09.972998</t>
+  </si>
+  <si>
+    <t>0:00:00.500812</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:09.991218</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:11.492792</t>
+  </si>
+  <si>
+    <t>0:00:01.501574</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:11.538937</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.039823</t>
+  </si>
+  <si>
+    <t>0:00:00.500886</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.058016</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.558717</t>
+  </si>
+  <si>
+    <t>0:00:00.500701</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:12.609871</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.110554</t>
+  </si>
+  <si>
+    <t>0:00:00.500683</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.132457</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.633179</t>
+  </si>
+  <si>
+    <t>0:00:00.500722</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:13.648172</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.148897</t>
+  </si>
+  <si>
+    <t>0:00:00.500725</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.204100</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.704888</t>
+  </si>
+  <si>
+    <t>0:00:00.500788</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:14.721999</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.222775</t>
+  </si>
+  <si>
+    <t>0:00:00.500776</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.273749</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.774586</t>
+  </si>
+  <si>
+    <t>0:00:00.500837</t>
+  </si>
+  <si>
+    <t>2018-05-24 20:53:15.792355</t>
   </si>
 </sst>
 </file>
@@ -444,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +919,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -487,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3038</v>
+        <v>3114</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -513,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -533,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -556,16 +997,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -588,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -608,7 +1049,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -617,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>990</v>
+        <v>376</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -634,16 +1075,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -669,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -686,13 +1127,1316 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>265</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>864</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>260</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>794</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>245</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>740</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>163</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>670</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>213</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>604</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>183</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>537</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>279</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>471</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>422</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>424</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>357</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>353</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>289</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>268</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>214</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>246</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>173</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>224</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>196</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>262</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>265</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>226</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>217</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>275</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>865</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>269</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>801</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>191</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>732</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>234</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>674</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>212</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>619</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>287</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>541</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>202</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>475</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>422</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>398</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G55" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>384</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>333</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>316</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>263</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
